--- a/e_for_targets.xlsx
+++ b/e_for_targets.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motionlab_3080\Desktop\projects\stats\results_grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motionlab_3080\Desktop\projects\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EE4907-208A-461E-B264-64DB49C58C33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E889D3-D949-4269-94EB-EF12837ADAF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="82">
   <si>
     <t>target_idx</t>
   </si>
@@ -499,6 +499,30 @@
   </si>
   <si>
     <t>std</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Per Distance ()</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Per Vertical Position ()</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Per Horizontal Position ()</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>left eye</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>right eye</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1710,7 +1734,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2143,6 +2167,57 @@
     <xf numFmtId="179" fontId="22" fillId="51" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="37" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="37" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="22" fillId="38" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2150,12 +2225,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="22" fillId="52" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="37" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="37" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="22" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2179,41 +2248,14 @@
     <xf numFmtId="179" fontId="22" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2221,25 +2263,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2614,7 +2641,7 @@
   <dimension ref="A1:AR287"/>
   <sheetViews>
     <sheetView topLeftCell="A221" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X249" sqref="X249"/>
+      <selection activeCell="C258" sqref="C258:E258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14541,62 +14568,62 @@
     <row r="150" spans="1:44">
       <c r="A150" s="3"/>
       <c r="B150" s="23"/>
-      <c r="C150" s="159" t="s">
+      <c r="C150" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="D150" s="159"/>
-      <c r="E150" s="159"/>
-      <c r="F150" s="159"/>
-      <c r="G150" s="159"/>
-      <c r="H150" s="159"/>
-      <c r="I150" s="159"/>
-      <c r="J150" s="159"/>
-      <c r="K150" s="159"/>
-      <c r="M150" s="159" t="s">
+      <c r="D150" s="155"/>
+      <c r="E150" s="155"/>
+      <c r="F150" s="155"/>
+      <c r="G150" s="155"/>
+      <c r="H150" s="155"/>
+      <c r="I150" s="155"/>
+      <c r="J150" s="155"/>
+      <c r="K150" s="155"/>
+      <c r="M150" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="N150" s="159"/>
-      <c r="O150" s="159"/>
-      <c r="P150" s="159"/>
-      <c r="Q150" s="159"/>
-      <c r="R150" s="159"/>
-      <c r="S150" s="159"/>
-      <c r="T150" s="159"/>
-      <c r="U150" s="159"/>
+      <c r="N150" s="155"/>
+      <c r="O150" s="155"/>
+      <c r="P150" s="155"/>
+      <c r="Q150" s="155"/>
+      <c r="R150" s="155"/>
+      <c r="S150" s="155"/>
+      <c r="T150" s="155"/>
+      <c r="U150" s="155"/>
     </row>
     <row r="151" spans="1:44">
       <c r="A151" s="3"/>
       <c r="B151" s="23"/>
-      <c r="C151" s="159" t="s">
+      <c r="C151" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="D151" s="159"/>
-      <c r="E151" s="159"/>
-      <c r="F151" s="159" t="s">
+      <c r="D151" s="155"/>
+      <c r="E151" s="155"/>
+      <c r="F151" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="G151" s="159"/>
-      <c r="H151" s="159"/>
-      <c r="I151" s="159" t="s">
+      <c r="G151" s="155"/>
+      <c r="H151" s="155"/>
+      <c r="I151" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="J151" s="159"/>
-      <c r="K151" s="159"/>
-      <c r="M151" s="159" t="s">
+      <c r="J151" s="155"/>
+      <c r="K151" s="155"/>
+      <c r="M151" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="N151" s="159"/>
-      <c r="O151" s="159"/>
-      <c r="P151" s="159" t="s">
+      <c r="N151" s="155"/>
+      <c r="O151" s="155"/>
+      <c r="P151" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="Q151" s="159"/>
-      <c r="R151" s="159"/>
-      <c r="S151" s="159" t="s">
+      <c r="Q151" s="155"/>
+      <c r="R151" s="155"/>
+      <c r="S151" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="T151" s="159"/>
-      <c r="U151" s="159"/>
+      <c r="T151" s="155"/>
+      <c r="U151" s="155"/>
     </row>
     <row r="152" spans="1:44" ht="28.5">
       <c r="A152" s="4"/>
@@ -15877,62 +15904,62 @@
     <row r="165" spans="1:41">
       <c r="A165" s="4"/>
       <c r="B165" s="23"/>
-      <c r="C165" s="159" t="s">
+      <c r="C165" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="D165" s="159"/>
-      <c r="E165" s="159"/>
-      <c r="F165" s="159"/>
-      <c r="G165" s="159"/>
-      <c r="H165" s="159"/>
-      <c r="I165" s="159"/>
-      <c r="J165" s="159"/>
-      <c r="K165" s="159"/>
-      <c r="M165" s="159" t="s">
+      <c r="D165" s="155"/>
+      <c r="E165" s="155"/>
+      <c r="F165" s="155"/>
+      <c r="G165" s="155"/>
+      <c r="H165" s="155"/>
+      <c r="I165" s="155"/>
+      <c r="J165" s="155"/>
+      <c r="K165" s="155"/>
+      <c r="M165" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="N165" s="159"/>
-      <c r="O165" s="159"/>
-      <c r="P165" s="159"/>
-      <c r="Q165" s="159"/>
-      <c r="R165" s="159"/>
-      <c r="S165" s="159"/>
-      <c r="T165" s="159"/>
-      <c r="U165" s="159"/>
+      <c r="N165" s="155"/>
+      <c r="O165" s="155"/>
+      <c r="P165" s="155"/>
+      <c r="Q165" s="155"/>
+      <c r="R165" s="155"/>
+      <c r="S165" s="155"/>
+      <c r="T165" s="155"/>
+      <c r="U165" s="155"/>
     </row>
     <row r="166" spans="1:41">
       <c r="A166" s="4"/>
       <c r="B166" s="23"/>
-      <c r="C166" s="159" t="s">
+      <c r="C166" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="D166" s="159"/>
-      <c r="E166" s="159"/>
-      <c r="F166" s="159" t="s">
+      <c r="D166" s="155"/>
+      <c r="E166" s="155"/>
+      <c r="F166" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="G166" s="159"/>
-      <c r="H166" s="159"/>
-      <c r="I166" s="159" t="s">
+      <c r="G166" s="155"/>
+      <c r="H166" s="155"/>
+      <c r="I166" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="J166" s="159"/>
-      <c r="K166" s="159"/>
-      <c r="M166" s="159" t="s">
+      <c r="J166" s="155"/>
+      <c r="K166" s="155"/>
+      <c r="M166" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="N166" s="159"/>
-      <c r="O166" s="159"/>
-      <c r="P166" s="159" t="s">
+      <c r="N166" s="155"/>
+      <c r="O166" s="155"/>
+      <c r="P166" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="Q166" s="159"/>
-      <c r="R166" s="159"/>
-      <c r="S166" s="159" t="s">
+      <c r="Q166" s="155"/>
+      <c r="R166" s="155"/>
+      <c r="S166" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="T166" s="159"/>
-      <c r="U166" s="159"/>
+      <c r="T166" s="155"/>
+      <c r="U166" s="155"/>
     </row>
     <row r="167" spans="1:41" ht="28.5">
       <c r="A167" s="4"/>
@@ -17136,21 +17163,21 @@
     </row>
     <row r="180" spans="1:41">
       <c r="B180" s="23"/>
-      <c r="C180" s="159" t="s">
+      <c r="C180" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="D180" s="159"/>
-      <c r="E180" s="159"/>
-      <c r="F180" s="159" t="s">
+      <c r="D180" s="155"/>
+      <c r="E180" s="155"/>
+      <c r="F180" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="G180" s="159"/>
-      <c r="H180" s="159"/>
-      <c r="I180" s="159" t="s">
+      <c r="G180" s="155"/>
+      <c r="H180" s="155"/>
+      <c r="I180" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="J180" s="159"/>
-      <c r="K180" s="159"/>
+      <c r="J180" s="155"/>
+      <c r="K180" s="155"/>
       <c r="W180" s="30"/>
       <c r="X180" s="30"/>
       <c r="Y180" s="30"/>
@@ -19561,50 +19588,50 @@
     </row>
     <row r="223" spans="1:41" ht="16.5" customHeight="1">
       <c r="A223" s="71"/>
-      <c r="B223" s="149" t="s">
+      <c r="B223" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="C223" s="147" t="s">
+      <c r="C223" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="D223" s="148"/>
-      <c r="E223" s="148"/>
-      <c r="F223" s="146" t="s">
+      <c r="D223" s="160"/>
+      <c r="E223" s="160"/>
+      <c r="F223" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="G223" s="146"/>
-      <c r="H223" s="146"/>
-      <c r="I223" s="144" t="s">
+      <c r="G223" s="163"/>
+      <c r="H223" s="163"/>
+      <c r="I223" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="J223" s="144"/>
-      <c r="K223" s="145"/>
+      <c r="J223" s="161"/>
+      <c r="K223" s="162"/>
       <c r="L223" s="71"/>
-      <c r="M223" s="151" t="s">
+      <c r="M223" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="N223" s="147" t="s">
+      <c r="N223" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="O223" s="148"/>
-      <c r="P223" s="148"/>
-      <c r="Q223" s="146" t="s">
+      <c r="O223" s="160"/>
+      <c r="P223" s="160"/>
+      <c r="Q223" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="R223" s="146"/>
-      <c r="S223" s="146"/>
-      <c r="T223" s="144" t="s">
+      <c r="R223" s="163"/>
+      <c r="S223" s="163"/>
+      <c r="T223" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="U223" s="144"/>
-      <c r="V223" s="145"/>
+      <c r="U223" s="161"/>
+      <c r="V223" s="162"/>
       <c r="W223" s="71"/>
       <c r="X223" s="71"/>
       <c r="Y223" s="71"/>
     </row>
     <row r="224" spans="1:41" ht="30" customHeight="1">
       <c r="A224" s="71"/>
-      <c r="B224" s="150"/>
+      <c r="B224" s="165"/>
       <c r="C224" s="138" t="s">
         <v>36</v>
       </c>
@@ -19633,7 +19660,7 @@
         <v>41</v>
       </c>
       <c r="L224" s="71"/>
-      <c r="M224" s="152"/>
+      <c r="M224" s="167"/>
       <c r="N224" s="138" t="s">
         <v>36</v>
       </c>
@@ -20845,50 +20872,50 @@
     </row>
     <row r="237" spans="1:36">
       <c r="A237" s="71"/>
-      <c r="B237" s="149" t="s">
+      <c r="B237" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="C237" s="147" t="s">
+      <c r="C237" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="D237" s="148"/>
-      <c r="E237" s="148"/>
-      <c r="F237" s="146" t="s">
+      <c r="D237" s="160"/>
+      <c r="E237" s="160"/>
+      <c r="F237" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="G237" s="146"/>
-      <c r="H237" s="146"/>
-      <c r="I237" s="144" t="s">
+      <c r="G237" s="163"/>
+      <c r="H237" s="163"/>
+      <c r="I237" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="J237" s="144"/>
-      <c r="K237" s="145"/>
+      <c r="J237" s="161"/>
+      <c r="K237" s="162"/>
       <c r="L237" s="71"/>
-      <c r="M237" s="149" t="s">
+      <c r="M237" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="N237" s="147" t="s">
+      <c r="N237" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="O237" s="148"/>
-      <c r="P237" s="148"/>
-      <c r="Q237" s="146" t="s">
+      <c r="O237" s="160"/>
+      <c r="P237" s="160"/>
+      <c r="Q237" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="R237" s="146"/>
-      <c r="S237" s="146"/>
-      <c r="T237" s="144" t="s">
+      <c r="R237" s="163"/>
+      <c r="S237" s="163"/>
+      <c r="T237" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="U237" s="144"/>
-      <c r="V237" s="145"/>
+      <c r="U237" s="161"/>
+      <c r="V237" s="162"/>
       <c r="W237" s="71"/>
       <c r="X237" s="71"/>
       <c r="Y237" s="71"/>
     </row>
     <row r="238" spans="1:36" ht="30">
       <c r="A238" s="71"/>
-      <c r="B238" s="150"/>
+      <c r="B238" s="165"/>
       <c r="C238" s="138" t="s">
         <v>19</v>
       </c>
@@ -20917,7 +20944,7 @@
         <v>27</v>
       </c>
       <c r="L238" s="71"/>
-      <c r="M238" s="150"/>
+      <c r="M238" s="165"/>
       <c r="N238" s="138" t="s">
         <v>19</v>
       </c>
@@ -21987,78 +22014,78 @@
     <row r="257" spans="1:24" ht="17.25">
       <c r="A257" s="71"/>
       <c r="B257" s="37"/>
-      <c r="C257" s="153" t="s">
+      <c r="C257" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="D257" s="154"/>
-      <c r="E257" s="154"/>
-      <c r="F257" s="154"/>
-      <c r="G257" s="154"/>
-      <c r="H257" s="154"/>
-      <c r="I257" s="154"/>
-      <c r="J257" s="154"/>
-      <c r="K257" s="155"/>
+      <c r="D257" s="169"/>
+      <c r="E257" s="169"/>
+      <c r="F257" s="169"/>
+      <c r="G257" s="169"/>
+      <c r="H257" s="169"/>
+      <c r="I257" s="169"/>
+      <c r="J257" s="169"/>
+      <c r="K257" s="170"/>
       <c r="L257" s="71"/>
       <c r="M257" s="37"/>
-      <c r="N257" s="153" t="s">
+      <c r="N257" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="O257" s="154"/>
-      <c r="P257" s="154"/>
-      <c r="Q257" s="154"/>
-      <c r="R257" s="154"/>
-      <c r="S257" s="154"/>
-      <c r="T257" s="154"/>
-      <c r="U257" s="154"/>
-      <c r="V257" s="155"/>
+      <c r="O257" s="169"/>
+      <c r="P257" s="169"/>
+      <c r="Q257" s="169"/>
+      <c r="R257" s="169"/>
+      <c r="S257" s="169"/>
+      <c r="T257" s="169"/>
+      <c r="U257" s="169"/>
+      <c r="V257" s="170"/>
       <c r="W257" s="71"/>
       <c r="X257" s="71"/>
     </row>
     <row r="258" spans="1:24">
       <c r="A258" s="71"/>
-      <c r="B258" s="149" t="s">
+      <c r="B258" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="C258" s="147" t="s">
+      <c r="C258" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="D258" s="148"/>
-      <c r="E258" s="148"/>
-      <c r="F258" s="146" t="s">
+      <c r="D258" s="160"/>
+      <c r="E258" s="160"/>
+      <c r="F258" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="G258" s="146"/>
-      <c r="H258" s="146"/>
-      <c r="I258" s="144" t="s">
+      <c r="G258" s="163"/>
+      <c r="H258" s="163"/>
+      <c r="I258" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="J258" s="144"/>
-      <c r="K258" s="145"/>
+      <c r="J258" s="161"/>
+      <c r="K258" s="162"/>
       <c r="L258" s="71"/>
-      <c r="M258" s="151" t="s">
+      <c r="M258" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="N258" s="147" t="s">
+      <c r="N258" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="O258" s="148"/>
-      <c r="P258" s="148"/>
-      <c r="Q258" s="146" t="s">
+      <c r="O258" s="160"/>
+      <c r="P258" s="160"/>
+      <c r="Q258" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="R258" s="146"/>
-      <c r="S258" s="146"/>
-      <c r="T258" s="144" t="s">
+      <c r="R258" s="163"/>
+      <c r="S258" s="163"/>
+      <c r="T258" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="U258" s="144"/>
-      <c r="V258" s="145"/>
+      <c r="U258" s="161"/>
+      <c r="V258" s="162"/>
       <c r="W258" s="71"/>
       <c r="X258" s="71"/>
     </row>
     <row r="259" spans="1:24" ht="30" customHeight="1">
       <c r="A259" s="71"/>
-      <c r="B259" s="150"/>
+      <c r="B259" s="165"/>
       <c r="C259" s="138" t="s">
         <v>36</v>
       </c>
@@ -22087,7 +22114,7 @@
         <v>41</v>
       </c>
       <c r="L259" s="71"/>
-      <c r="M259" s="152"/>
+      <c r="M259" s="167"/>
       <c r="N259" s="138" t="s">
         <v>36</v>
       </c>
@@ -22987,78 +23014,78 @@
     <row r="271" spans="1:24" ht="17.25">
       <c r="A271" s="71"/>
       <c r="B271" s="37"/>
-      <c r="C271" s="153" t="s">
+      <c r="C271" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="D271" s="154"/>
-      <c r="E271" s="154"/>
-      <c r="F271" s="154"/>
-      <c r="G271" s="154"/>
-      <c r="H271" s="154"/>
-      <c r="I271" s="154"/>
-      <c r="J271" s="154"/>
-      <c r="K271" s="155"/>
+      <c r="D271" s="169"/>
+      <c r="E271" s="169"/>
+      <c r="F271" s="169"/>
+      <c r="G271" s="169"/>
+      <c r="H271" s="169"/>
+      <c r="I271" s="169"/>
+      <c r="J271" s="169"/>
+      <c r="K271" s="170"/>
       <c r="L271" s="71"/>
       <c r="M271" s="37"/>
-      <c r="N271" s="153" t="s">
+      <c r="N271" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="O271" s="154"/>
-      <c r="P271" s="154"/>
-      <c r="Q271" s="154"/>
-      <c r="R271" s="154"/>
-      <c r="S271" s="154"/>
-      <c r="T271" s="154"/>
-      <c r="U271" s="154"/>
-      <c r="V271" s="155"/>
+      <c r="O271" s="169"/>
+      <c r="P271" s="169"/>
+      <c r="Q271" s="169"/>
+      <c r="R271" s="169"/>
+      <c r="S271" s="169"/>
+      <c r="T271" s="169"/>
+      <c r="U271" s="169"/>
+      <c r="V271" s="170"/>
       <c r="W271" s="71"/>
       <c r="X271" s="71"/>
     </row>
     <row r="272" spans="1:24">
       <c r="A272" s="71"/>
-      <c r="B272" s="149" t="s">
+      <c r="B272" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="C272" s="147" t="s">
+      <c r="C272" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="D272" s="148"/>
-      <c r="E272" s="148"/>
-      <c r="F272" s="146" t="s">
+      <c r="D272" s="160"/>
+      <c r="E272" s="160"/>
+      <c r="F272" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="G272" s="146"/>
-      <c r="H272" s="146"/>
-      <c r="I272" s="144" t="s">
+      <c r="G272" s="163"/>
+      <c r="H272" s="163"/>
+      <c r="I272" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="J272" s="144"/>
-      <c r="K272" s="145"/>
+      <c r="J272" s="161"/>
+      <c r="K272" s="162"/>
       <c r="L272" s="71"/>
-      <c r="M272" s="149" t="s">
+      <c r="M272" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="N272" s="147" t="s">
+      <c r="N272" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="O272" s="148"/>
-      <c r="P272" s="148"/>
-      <c r="Q272" s="146" t="s">
+      <c r="O272" s="160"/>
+      <c r="P272" s="160"/>
+      <c r="Q272" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="R272" s="146"/>
-      <c r="S272" s="146"/>
-      <c r="T272" s="144" t="s">
+      <c r="R272" s="163"/>
+      <c r="S272" s="163"/>
+      <c r="T272" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="U272" s="144"/>
-      <c r="V272" s="145"/>
+      <c r="U272" s="161"/>
+      <c r="V272" s="162"/>
       <c r="W272" s="71"/>
       <c r="X272" s="71"/>
     </row>
     <row r="273" spans="1:24" ht="30" customHeight="1">
       <c r="A273" s="71"/>
-      <c r="B273" s="150"/>
+      <c r="B273" s="165"/>
       <c r="C273" s="138" t="s">
         <v>36</v>
       </c>
@@ -23087,7 +23114,7 @@
         <v>41</v>
       </c>
       <c r="L273" s="71"/>
-      <c r="M273" s="150"/>
+      <c r="M273" s="165"/>
       <c r="N273" s="138" t="s">
         <v>36</v>
       </c>
@@ -24064,16 +24091,41 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C150:K150"/>
-    <mergeCell ref="M150:U150"/>
-    <mergeCell ref="C165:K165"/>
-    <mergeCell ref="M165:U165"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="F151:H151"/>
-    <mergeCell ref="I151:K151"/>
-    <mergeCell ref="M151:O151"/>
-    <mergeCell ref="P151:R151"/>
-    <mergeCell ref="S151:U151"/>
+    <mergeCell ref="T272:V272"/>
+    <mergeCell ref="Q272:S272"/>
+    <mergeCell ref="N272:P272"/>
+    <mergeCell ref="T223:V223"/>
+    <mergeCell ref="Q223:S223"/>
+    <mergeCell ref="N223:P223"/>
+    <mergeCell ref="N271:V271"/>
+    <mergeCell ref="N257:V257"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="M223:M224"/>
+    <mergeCell ref="F223:H223"/>
+    <mergeCell ref="I223:K223"/>
+    <mergeCell ref="T237:V237"/>
+    <mergeCell ref="Q237:S237"/>
+    <mergeCell ref="N237:P237"/>
+    <mergeCell ref="I237:K237"/>
+    <mergeCell ref="F237:H237"/>
+    <mergeCell ref="C237:E237"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="M272:M273"/>
+    <mergeCell ref="B272:B273"/>
+    <mergeCell ref="I258:K258"/>
+    <mergeCell ref="F258:H258"/>
+    <mergeCell ref="C258:E258"/>
+    <mergeCell ref="I272:K272"/>
+    <mergeCell ref="F272:H272"/>
+    <mergeCell ref="C272:E272"/>
+    <mergeCell ref="C271:K271"/>
+    <mergeCell ref="T258:V258"/>
+    <mergeCell ref="Q258:S258"/>
+    <mergeCell ref="N258:P258"/>
+    <mergeCell ref="B258:B259"/>
+    <mergeCell ref="M237:M238"/>
+    <mergeCell ref="M258:M259"/>
+    <mergeCell ref="C257:K257"/>
     <mergeCell ref="S166:U166"/>
     <mergeCell ref="C180:E180"/>
     <mergeCell ref="F180:H180"/>
@@ -24088,41 +24140,16 @@
     <mergeCell ref="C222:K222"/>
     <mergeCell ref="N222:V222"/>
     <mergeCell ref="C223:E223"/>
-    <mergeCell ref="T258:V258"/>
-    <mergeCell ref="Q258:S258"/>
-    <mergeCell ref="N258:P258"/>
-    <mergeCell ref="B258:B259"/>
-    <mergeCell ref="M237:M238"/>
-    <mergeCell ref="M258:M259"/>
-    <mergeCell ref="M272:M273"/>
-    <mergeCell ref="B272:B273"/>
-    <mergeCell ref="I258:K258"/>
-    <mergeCell ref="F258:H258"/>
-    <mergeCell ref="C258:E258"/>
-    <mergeCell ref="I272:K272"/>
-    <mergeCell ref="F272:H272"/>
-    <mergeCell ref="C272:E272"/>
-    <mergeCell ref="C271:K271"/>
-    <mergeCell ref="C257:K257"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="M223:M224"/>
-    <mergeCell ref="F223:H223"/>
-    <mergeCell ref="I223:K223"/>
-    <mergeCell ref="T237:V237"/>
-    <mergeCell ref="Q237:S237"/>
-    <mergeCell ref="N237:P237"/>
-    <mergeCell ref="I237:K237"/>
-    <mergeCell ref="F237:H237"/>
-    <mergeCell ref="C237:E237"/>
-    <mergeCell ref="B237:B238"/>
-    <mergeCell ref="T272:V272"/>
-    <mergeCell ref="Q272:S272"/>
-    <mergeCell ref="N272:P272"/>
-    <mergeCell ref="T223:V223"/>
-    <mergeCell ref="Q223:S223"/>
-    <mergeCell ref="N223:P223"/>
-    <mergeCell ref="N271:V271"/>
-    <mergeCell ref="N257:V257"/>
+    <mergeCell ref="C150:K150"/>
+    <mergeCell ref="M150:U150"/>
+    <mergeCell ref="C165:K165"/>
+    <mergeCell ref="M165:U165"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="F151:H151"/>
+    <mergeCell ref="I151:K151"/>
+    <mergeCell ref="M151:O151"/>
+    <mergeCell ref="P151:R151"/>
+    <mergeCell ref="S151:U151"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24132,1017 +24159,1037 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D326F56-A869-4233-A5E2-DBC6DB5510CF}">
-  <dimension ref="A2:W41"/>
+  <dimension ref="A2:Z48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="1:23">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145">
         <v>0</v>
       </c>
-      <c r="D2" s="162">
+      <c r="D2" s="145">
         <v>1</v>
       </c>
-      <c r="E2" s="162">
+      <c r="E2" s="145">
         <v>2</v>
       </c>
-      <c r="F2" s="162">
+      <c r="F2" s="145">
         <v>3</v>
       </c>
-      <c r="G2" s="162">
+      <c r="G2" s="145">
         <v>4</v>
       </c>
-      <c r="H2" s="162">
+      <c r="H2" s="145">
         <v>5</v>
       </c>
-      <c r="I2" s="162">
+      <c r="I2" s="145">
         <v>6</v>
       </c>
-      <c r="J2" s="162">
+      <c r="J2" s="145">
         <v>7</v>
       </c>
-      <c r="K2" s="162">
+      <c r="K2" s="145">
         <v>8</v>
       </c>
-      <c r="M2" s="164" t="s">
+      <c r="M2" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="166"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="164" t="s">
+      <c r="N2" s="172"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="171" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="164" t="s">
+      <c r="Q2" s="172"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="166"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="163" t="s">
+      <c r="T2" s="172"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="163" t="s">
+      <c r="W2" s="146" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="161"/>
-      <c r="B3" s="162">
+      <c r="A3" s="176"/>
+      <c r="B3" s="145">
         <v>0</v>
       </c>
-      <c r="C3" s="162">
+      <c r="C3" s="145">
         <v>8.0149862268417191</v>
       </c>
-      <c r="D3" s="162">
+      <c r="D3" s="145">
         <v>5.1335475551799501</v>
       </c>
-      <c r="E3" s="162">
+      <c r="E3" s="145">
         <v>9.1789862114216394</v>
       </c>
-      <c r="F3" s="162">
+      <c r="F3" s="145">
         <v>10.656154638314799</v>
       </c>
-      <c r="G3" s="162">
+      <c r="G3" s="145">
         <v>0.64589000867308499</v>
       </c>
-      <c r="H3" s="162">
+      <c r="H3" s="145">
         <v>5.7821815923520896</v>
       </c>
-      <c r="I3" s="162">
+      <c r="I3" s="145">
         <v>8.4025157924226104</v>
       </c>
-      <c r="J3" s="162">
+      <c r="J3" s="145">
         <v>5.8457309530503601</v>
       </c>
-      <c r="K3" s="162">
+      <c r="K3" s="145">
         <v>8.4409663423551908</v>
       </c>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163" t="s">
+      <c r="M3" s="146"/>
+      <c r="N3" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="163" t="s">
+      <c r="O3" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163" t="s">
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="163" t="s">
+      <c r="R3" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163" t="s">
+      <c r="S3" s="146"/>
+      <c r="T3" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="163" t="s">
+      <c r="U3" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="163">
+      <c r="V3" s="146">
         <v>6.651693104653579</v>
       </c>
-      <c r="W3" s="163">
+      <c r="W3" s="146">
         <v>2.7245193781472286</v>
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="161"/>
-      <c r="B4" s="162">
+      <c r="A4" s="176"/>
+      <c r="B4" s="145">
         <v>1</v>
       </c>
-      <c r="C4" s="162">
+      <c r="C4" s="145">
         <v>8.0063357922578895</v>
       </c>
-      <c r="D4" s="162">
+      <c r="D4" s="145">
         <v>4.3101622743193904</v>
       </c>
-      <c r="E4" s="162">
+      <c r="E4" s="145">
         <v>8.2346843841370507</v>
       </c>
-      <c r="F4" s="162">
+      <c r="F4" s="145">
         <v>10.3456593612879</v>
       </c>
-      <c r="G4" s="162">
+      <c r="G4" s="145">
         <v>1.3308977913833</v>
       </c>
-      <c r="H4" s="162">
+      <c r="H4" s="145">
         <v>5.0728472371392304</v>
       </c>
-      <c r="I4" s="162">
+      <c r="I4" s="145">
         <v>9.0368550974355593</v>
       </c>
-      <c r="J4" s="162">
+      <c r="J4" s="145">
         <v>5.2984594844821498</v>
       </c>
-      <c r="K4" s="162">
+      <c r="K4" s="145">
         <v>6.5180047018267402</v>
       </c>
-      <c r="M4" s="163" t="s">
+      <c r="M4" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="163">
+      <c r="N4" s="146">
         <v>6.9001065911790498</v>
       </c>
-      <c r="O4" s="163">
+      <c r="O4" s="146">
         <v>2.7843420969690222</v>
       </c>
-      <c r="P4" s="163" t="s">
+      <c r="P4" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="Q4" s="163">
+      <c r="Q4" s="146">
         <v>6.9148644125355681</v>
       </c>
-      <c r="R4" s="163">
+      <c r="R4" s="146">
         <v>1.6968748227653523</v>
       </c>
-      <c r="S4" s="163" t="s">
+      <c r="S4" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="163">
+      <c r="T4" s="146">
+        <f>AVERAGE(E3:E6,H3:H6,K3:K6)</f>
         <v>7.1229626318905019</v>
       </c>
-      <c r="U4" s="163">
+      <c r="U4" s="146">
         <v>1.4164730550259441</v>
       </c>
-      <c r="V4" s="163"/>
-      <c r="W4" s="163"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="146"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="161"/>
-      <c r="B5" s="162">
+      <c r="A5" s="176"/>
+      <c r="B5" s="145">
         <v>2</v>
       </c>
-      <c r="C5" s="162">
+      <c r="C5" s="145">
         <v>7.7324349612566303</v>
       </c>
-      <c r="D5" s="162">
+      <c r="D5" s="145">
         <v>5.8419743490068496</v>
       </c>
-      <c r="E5" s="162">
+      <c r="E5" s="145">
         <v>8.4659631271701503</v>
       </c>
-      <c r="F5" s="162">
+      <c r="F5" s="145">
         <v>10.7026323680695</v>
       </c>
-      <c r="G5" s="162">
+      <c r="G5" s="145">
         <v>0.36637470881321599</v>
       </c>
-      <c r="H5" s="162">
+      <c r="H5" s="145">
         <v>4.4173881334389504</v>
       </c>
-      <c r="I5" s="162">
+      <c r="I5" s="145">
         <v>8.5948684336021497</v>
       </c>
-      <c r="J5" s="162">
+      <c r="J5" s="145">
         <v>6.4318153984639901</v>
       </c>
-      <c r="K5" s="162">
+      <c r="K5" s="145">
         <v>7.4880226182232503</v>
       </c>
-      <c r="M5" s="163" t="s">
+      <c r="M5" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="163">
+      <c r="N5" s="146">
         <v>6.4615451249188016</v>
       </c>
-      <c r="O5" s="163">
+      <c r="O5" s="146">
         <v>2.6137540868663391</v>
       </c>
-      <c r="P5" s="163" t="s">
+      <c r="P5" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="163">
+      <c r="Q5" s="146">
         <v>5.5640527999739442</v>
       </c>
-      <c r="R5" s="163">
+      <c r="R5" s="146">
         <v>3.9455678780442422</v>
       </c>
-      <c r="S5" s="163" t="s">
+      <c r="S5" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="T5" s="163">
+      <c r="T5" s="146">
         <v>3.8086606726650665</v>
       </c>
-      <c r="U5" s="163">
+      <c r="U5" s="146">
         <v>2.230772036471746</v>
       </c>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
+      <c r="V5" s="146"/>
+      <c r="W5" s="146"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="161"/>
-      <c r="B6" s="162">
+      <c r="A6" s="176"/>
+      <c r="B6" s="145">
         <v>3</v>
       </c>
-      <c r="C6" s="162">
+      <c r="C6" s="145">
         <v>7.1594952149006899</v>
       </c>
-      <c r="D6" s="162">
+      <c r="D6" s="145">
         <v>3.6130838397984699</v>
       </c>
-      <c r="E6" s="162">
+      <c r="E6" s="145">
         <v>7.2867190141364002</v>
       </c>
-      <c r="F6" s="162">
+      <c r="F6" s="145">
         <v>9.9268185010044601</v>
       </c>
-      <c r="G6" s="162">
+      <c r="G6" s="145">
         <v>0.99071072153900397</v>
       </c>
-      <c r="H6" s="162">
+      <c r="H6" s="145">
         <v>6.5310785376717897</v>
       </c>
-      <c r="I6" s="162">
+      <c r="I6" s="145">
         <v>9.70271572546811</v>
       </c>
-      <c r="J6" s="162">
+      <c r="J6" s="145">
         <v>5.8952809872710397</v>
       </c>
-      <c r="K6" s="162">
+      <c r="K6" s="145">
         <v>8.05870968281355</v>
       </c>
-      <c r="M6" s="163" t="s">
+      <c r="M6" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="163">
+      <c r="N6" s="146">
         <v>6.6712748997827429</v>
       </c>
-      <c r="O6" s="163">
+      <c r="O6" s="146">
         <v>2.799661699711979</v>
       </c>
-      <c r="P6" s="163" t="s">
+      <c r="P6" s="146" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="163">
+      <c r="Q6" s="146">
         <v>7.4761621014512256</v>
       </c>
-      <c r="R6" s="163">
+      <c r="R6" s="146">
         <v>1.3748300931290931</v>
       </c>
-      <c r="S6" s="163" t="s">
+      <c r="S6" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="T6" s="163">
+      <c r="T6" s="146">
+        <f>AVERAGE(C3:C6,F3:F6,I3:I6)</f>
         <v>9.0234560094051677</v>
       </c>
-      <c r="U6" s="163">
+      <c r="U6" s="146">
         <v>1.1645128073079107</v>
       </c>
-      <c r="V6" s="163"/>
-      <c r="W6" s="163"/>
+      <c r="V6" s="146"/>
+      <c r="W6" s="146"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="M7" s="163" t="s">
+      <c r="C7">
+        <f>AVERAGE(C3:K6)</f>
+        <v>6.651693104653579</v>
+      </c>
+      <c r="M7" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="163">
+      <c r="N7" s="146">
         <v>6.5738458027337234</v>
       </c>
-      <c r="O7" s="163">
+      <c r="O7" s="146">
         <v>2.6768147548156702</v>
       </c>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
-      <c r="S7" s="163"/>
-      <c r="T7" s="163"/>
-      <c r="U7" s="163"/>
-      <c r="V7" s="163"/>
-      <c r="W7" s="163"/>
+      <c r="P7" s="146"/>
+      <c r="Q7" s="146"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="146"/>
+      <c r="T7" s="146"/>
+      <c r="U7" s="146"/>
+      <c r="V7" s="146"/>
+      <c r="W7" s="146"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="M8" s="160"/>
-      <c r="N8" s="160"/>
-      <c r="O8" s="160"/>
-      <c r="P8" s="160"/>
-      <c r="Q8" s="160"/>
-      <c r="R8" s="160"/>
-      <c r="S8" s="160"/>
-      <c r="T8" s="160"/>
-      <c r="U8" s="160"/>
-      <c r="V8" s="160"/>
-      <c r="W8" s="160"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="144"/>
+      <c r="O8" s="144"/>
+      <c r="P8" s="144"/>
+      <c r="Q8" s="144"/>
+      <c r="R8" s="144"/>
+      <c r="S8" s="144"/>
+      <c r="T8" s="144"/>
+      <c r="U8" s="144"/>
+      <c r="V8" s="144"/>
+      <c r="W8" s="144"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="161" t="s">
+      <c r="A9" s="176" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162">
+      <c r="B9" s="145"/>
+      <c r="C9" s="145">
         <v>0</v>
       </c>
-      <c r="D9" s="162">
+      <c r="D9" s="145">
         <v>1</v>
       </c>
-      <c r="E9" s="162">
+      <c r="E9" s="145">
         <v>2</v>
       </c>
-      <c r="F9" s="162">
+      <c r="F9" s="145">
         <v>3</v>
       </c>
-      <c r="G9" s="162">
+      <c r="G9" s="145">
         <v>4</v>
       </c>
-      <c r="H9" s="162">
+      <c r="H9" s="145">
         <v>5</v>
       </c>
-      <c r="I9" s="162">
+      <c r="I9" s="145">
         <v>6</v>
       </c>
-      <c r="J9" s="162">
+      <c r="J9" s="145">
         <v>7</v>
       </c>
-      <c r="K9" s="162">
+      <c r="K9" s="145">
         <v>8</v>
       </c>
-      <c r="M9" s="164" t="s">
+      <c r="M9" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="166"/>
-      <c r="O9" s="165"/>
-      <c r="P9" s="164" t="s">
+      <c r="N9" s="172"/>
+      <c r="O9" s="173"/>
+      <c r="P9" s="171" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="166"/>
-      <c r="R9" s="165"/>
-      <c r="S9" s="164" t="s">
+      <c r="Q9" s="172"/>
+      <c r="R9" s="173"/>
+      <c r="S9" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="T9" s="166"/>
-      <c r="U9" s="165"/>
-      <c r="V9" s="163" t="s">
+      <c r="T9" s="172"/>
+      <c r="U9" s="173"/>
+      <c r="V9" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="W9" s="163" t="s">
+      <c r="W9" s="146" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="161"/>
-      <c r="B10" s="162">
+      <c r="A10" s="176"/>
+      <c r="B10" s="145">
         <v>0</v>
       </c>
-      <c r="C10" s="162">
+      <c r="C10" s="145">
         <v>1.2268476500000001</v>
       </c>
-      <c r="D10" s="162">
+      <c r="D10" s="145">
         <v>0.89939899000000001</v>
       </c>
-      <c r="E10" s="162">
+      <c r="E10" s="145">
         <v>3.808994583</v>
       </c>
-      <c r="F10" s="162">
+      <c r="F10" s="145">
         <v>0.95838343599999998</v>
       </c>
-      <c r="G10" s="162">
+      <c r="G10" s="145">
         <v>1.278859647</v>
       </c>
-      <c r="H10" s="162">
+      <c r="H10" s="145">
         <v>2.2073530020000001</v>
       </c>
-      <c r="I10" s="162">
+      <c r="I10" s="145">
         <v>1.4800193909999999</v>
       </c>
-      <c r="J10" s="162">
+      <c r="J10" s="145">
         <v>0.95162176200000004</v>
       </c>
-      <c r="K10" s="162">
+      <c r="K10" s="145">
         <v>2.526774482</v>
       </c>
-      <c r="M10" s="163"/>
-      <c r="N10" s="163" t="s">
+      <c r="M10" s="146"/>
+      <c r="N10" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="O10" s="163" t="s">
+      <c r="O10" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="P10" s="163"/>
-      <c r="Q10" s="163" t="s">
+      <c r="P10" s="146"/>
+      <c r="Q10" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="R10" s="163" t="s">
+      <c r="R10" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="S10" s="163"/>
-      <c r="T10" s="163" t="s">
+      <c r="S10" s="146"/>
+      <c r="T10" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="U10" s="163" t="s">
+      <c r="U10" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="V10" s="163">
+      <c r="V10" s="146">
         <v>1.4919556839999999</v>
       </c>
-      <c r="W10" s="163">
+      <c r="W10" s="146">
         <v>0.78465702800000003</v>
       </c>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="161"/>
-      <c r="B11" s="162">
+      <c r="A11" s="176"/>
+      <c r="B11" s="145">
         <v>1</v>
       </c>
-      <c r="C11" s="162">
+      <c r="C11" s="145">
         <v>1.3495871100000001</v>
       </c>
-      <c r="D11" s="162">
+      <c r="D11" s="145">
         <v>0.681275191</v>
       </c>
-      <c r="E11" s="162">
+      <c r="E11" s="145">
         <v>3.019474233</v>
       </c>
-      <c r="F11" s="162">
+      <c r="F11" s="145">
         <v>0.78956704</v>
       </c>
-      <c r="G11" s="162">
+      <c r="G11" s="145">
         <v>0.85202757200000001</v>
       </c>
-      <c r="H11" s="162">
+      <c r="H11" s="145">
         <v>1.591392669</v>
       </c>
-      <c r="I11" s="162">
+      <c r="I11" s="145">
         <v>1.491609688</v>
       </c>
-      <c r="J11" s="162">
+      <c r="J11" s="145">
         <v>1.349442075</v>
       </c>
-      <c r="K11" s="162">
+      <c r="K11" s="145">
         <v>1.6535107840000001</v>
       </c>
-      <c r="M11" s="163" t="s">
+      <c r="M11" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="N11" s="163">
+      <c r="N11" s="146">
         <v>1.704250327</v>
       </c>
-      <c r="O11" s="163">
+      <c r="O11" s="146">
         <v>0.91829005200000002</v>
       </c>
-      <c r="P11" s="163" t="s">
+      <c r="P11" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="Q11" s="163">
+      <c r="Q11" s="146">
         <v>1.719300821</v>
       </c>
-      <c r="R11" s="163">
+      <c r="R11" s="146">
         <v>1.0670548769999999</v>
       </c>
-      <c r="S11" s="163" t="s">
+      <c r="S11" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="T11" s="163">
+      <c r="T11" s="146">
         <v>2.1769959330000002</v>
       </c>
-      <c r="U11" s="163">
+      <c r="U11" s="146">
         <v>0.70949314900000005</v>
       </c>
-      <c r="V11" s="163"/>
-      <c r="W11" s="163"/>
+      <c r="V11" s="146"/>
+      <c r="W11" s="146"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="161"/>
-      <c r="B12" s="162">
+      <c r="A12" s="176"/>
+      <c r="B12" s="145">
         <v>2</v>
       </c>
-      <c r="C12" s="162">
+      <c r="C12" s="145">
         <v>1.0529483660000001</v>
       </c>
-      <c r="D12" s="162">
+      <c r="D12" s="145">
         <v>3.5249784549999998</v>
       </c>
-      <c r="E12" s="162">
+      <c r="E12" s="145">
         <v>2.1014270129999999</v>
       </c>
-      <c r="F12" s="162">
+      <c r="F12" s="145">
         <v>0.41164472200000002</v>
       </c>
-      <c r="G12" s="162">
+      <c r="G12" s="145">
         <v>0.82637877100000001</v>
       </c>
-      <c r="H12" s="162">
+      <c r="H12" s="145">
         <v>2.0357666970000001</v>
       </c>
-      <c r="I12" s="162">
+      <c r="I12" s="145">
         <v>1.207555674</v>
       </c>
-      <c r="J12" s="162">
+      <c r="J12" s="145">
         <v>0.76744837899999996</v>
       </c>
-      <c r="K12" s="162">
+      <c r="K12" s="145">
         <v>1.919894459</v>
       </c>
-      <c r="M12" s="163" t="s">
+      <c r="M12" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="N12" s="163">
+      <c r="N12" s="146">
         <v>1.419765151</v>
       </c>
-      <c r="O12" s="163">
+      <c r="O12" s="146">
         <v>0.66022194400000001</v>
       </c>
-      <c r="P12" s="163" t="s">
+      <c r="P12" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="Q12" s="163">
+      <c r="Q12" s="146">
         <v>1.295638968</v>
       </c>
-      <c r="R12" s="163">
+      <c r="R12" s="146">
         <v>0.63080498399999996</v>
       </c>
-      <c r="S12" s="163" t="s">
+      <c r="S12" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="T12" s="163">
+      <c r="T12" s="146">
         <v>1.2271566410000001</v>
       </c>
-      <c r="U12" s="163">
+      <c r="U12" s="146">
         <v>0.73470581099999999</v>
       </c>
-      <c r="V12" s="163"/>
-      <c r="W12" s="163"/>
+      <c r="V12" s="146"/>
+      <c r="W12" s="146"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="161"/>
-      <c r="B13" s="162">
+      <c r="A13" s="176"/>
+      <c r="B13" s="145">
         <v>3</v>
       </c>
-      <c r="C13" s="162">
+      <c r="C13" s="145">
         <v>0.90590239699999997</v>
       </c>
-      <c r="D13" s="162">
+      <c r="D13" s="145">
         <v>1.119076016</v>
       </c>
-      <c r="E13" s="162">
+      <c r="E13" s="145">
         <v>0.94169984500000004</v>
       </c>
-      <c r="F13" s="162">
+      <c r="F13" s="145">
         <v>1.10180631</v>
       </c>
-      <c r="G13" s="162">
+      <c r="G13" s="145">
         <v>0.94273824799999995</v>
       </c>
-      <c r="H13" s="162">
+      <c r="H13" s="145">
         <v>2.5517494959999998</v>
       </c>
-      <c r="I13" s="162">
+      <c r="I13" s="145">
         <v>0.88470196999999995</v>
       </c>
-      <c r="J13" s="162">
+      <c r="J13" s="145">
         <v>1.532634579</v>
       </c>
-      <c r="K13" s="162">
+      <c r="K13" s="145">
         <v>1.7659139269999999</v>
       </c>
-      <c r="M13" s="163" t="s">
+      <c r="M13" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="N13" s="163">
+      <c r="N13" s="146">
         <v>1.538671393</v>
       </c>
-      <c r="O13" s="163">
+      <c r="O13" s="146">
         <v>0.90507481000000001</v>
       </c>
-      <c r="P13" s="163" t="s">
+      <c r="P13" s="146" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" s="163">
+      <c r="Q13" s="146">
         <v>1.4609272639999999</v>
       </c>
-      <c r="R13" s="163">
+      <c r="R13" s="146">
         <v>0.46834825600000002</v>
       </c>
-      <c r="S13" s="163" t="s">
+      <c r="S13" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="T13" s="163">
+      <c r="T13" s="146">
         <v>1.0717144789999999</v>
       </c>
-      <c r="U13" s="163">
+      <c r="U13" s="146">
         <v>0.29645480499999999</v>
       </c>
-      <c r="V13" s="163"/>
-      <c r="W13" s="163"/>
+      <c r="V13" s="146"/>
+      <c r="W13" s="146"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="M14" s="163" t="s">
+      <c r="C14">
+        <f>AVERAGE(C10:K13)</f>
+        <v>1.4919556841388892</v>
+      </c>
+      <c r="D14">
+        <f>_xlfn.STDEV.P(C10:K13)</f>
+        <v>0.78465702790398262</v>
+      </c>
+      <c r="M14" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="N14" s="163">
+      <c r="N14" s="146">
         <v>1.305135865</v>
       </c>
-      <c r="O14" s="163">
+      <c r="O14" s="146">
         <v>0.52637635500000002</v>
       </c>
-      <c r="P14" s="163"/>
-      <c r="Q14" s="163"/>
-      <c r="R14" s="163"/>
-      <c r="S14" s="163"/>
-      <c r="T14" s="163"/>
-      <c r="U14" s="163"/>
-      <c r="V14" s="163"/>
-      <c r="W14" s="163"/>
+      <c r="P14" s="146"/>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="146"/>
+      <c r="S14" s="146"/>
+      <c r="T14" s="146"/>
+      <c r="U14" s="146"/>
+      <c r="V14" s="146"/>
+      <c r="W14" s="146"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="M15" s="160"/>
-      <c r="N15" s="160"/>
-      <c r="O15" s="160"/>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="160"/>
-      <c r="R15" s="160"/>
-      <c r="S15" s="160"/>
-      <c r="T15" s="160"/>
-      <c r="U15" s="160"/>
-      <c r="V15" s="160"/>
-      <c r="W15" s="160"/>
+      <c r="M15" s="144"/>
+      <c r="N15" s="144"/>
+      <c r="O15" s="144"/>
+      <c r="P15" s="144"/>
+      <c r="Q15" s="144"/>
+      <c r="R15" s="144"/>
+      <c r="S15" s="144"/>
+      <c r="T15" s="144"/>
+      <c r="U15" s="144"/>
+      <c r="V15" s="144"/>
+      <c r="W15" s="144"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="161" t="s">
+      <c r="A16" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="162"/>
-      <c r="C16" s="162">
+      <c r="B16" s="145"/>
+      <c r="C16" s="145">
         <v>0</v>
       </c>
-      <c r="D16" s="162">
+      <c r="D16" s="145">
         <v>1</v>
       </c>
-      <c r="E16" s="162">
+      <c r="E16" s="145">
         <v>2</v>
       </c>
-      <c r="F16" s="162">
+      <c r="F16" s="145">
         <v>3</v>
       </c>
-      <c r="G16" s="162">
+      <c r="G16" s="145">
         <v>4</v>
       </c>
-      <c r="H16" s="162">
+      <c r="H16" s="145">
         <v>5</v>
       </c>
-      <c r="I16" s="162">
+      <c r="I16" s="145">
         <v>6</v>
       </c>
-      <c r="J16" s="162">
+      <c r="J16" s="145">
         <v>7</v>
       </c>
-      <c r="K16" s="162">
+      <c r="K16" s="145">
         <v>8</v>
       </c>
-      <c r="M16" s="164" t="s">
+      <c r="M16" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="N16" s="166"/>
-      <c r="O16" s="165"/>
-      <c r="P16" s="164" t="s">
+      <c r="N16" s="172"/>
+      <c r="O16" s="173"/>
+      <c r="P16" s="171" t="s">
         <v>46</v>
       </c>
-      <c r="Q16" s="166"/>
-      <c r="R16" s="165"/>
-      <c r="S16" s="164" t="s">
+      <c r="Q16" s="172"/>
+      <c r="R16" s="173"/>
+      <c r="S16" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="T16" s="166"/>
-      <c r="U16" s="165"/>
-      <c r="V16" s="163" t="s">
+      <c r="T16" s="172"/>
+      <c r="U16" s="173"/>
+      <c r="V16" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="W16" s="163" t="s">
+      <c r="W16" s="146" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="161"/>
-      <c r="B17" s="162">
+      <c r="A17" s="176"/>
+      <c r="B17" s="145">
         <v>0</v>
       </c>
-      <c r="C17" s="162">
+      <c r="C17" s="145">
         <v>0.379491793629534</v>
       </c>
-      <c r="D17" s="162">
+      <c r="D17" s="145">
         <v>1.0374088316160801</v>
       </c>
-      <c r="E17" s="162">
+      <c r="E17" s="145">
         <v>2.9178585209767398</v>
       </c>
-      <c r="F17" s="162">
+      <c r="F17" s="145">
         <v>0.917492481018642</v>
       </c>
-      <c r="G17" s="162">
+      <c r="G17" s="145">
         <v>0.84811435427656201</v>
       </c>
-      <c r="H17" s="162">
+      <c r="H17" s="145">
         <v>1.79253213469448</v>
       </c>
-      <c r="I17" s="162">
+      <c r="I17" s="145">
         <v>0.89961648857854404</v>
       </c>
-      <c r="J17" s="162">
+      <c r="J17" s="145">
         <v>0.76668307808352398</v>
       </c>
-      <c r="K17" s="162">
+      <c r="K17" s="145">
         <v>2.6361877094643398</v>
       </c>
-      <c r="M17" s="163"/>
-      <c r="N17" s="163" t="s">
+      <c r="M17" s="146"/>
+      <c r="N17" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="O17" s="163" t="s">
+      <c r="O17" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="P17" s="163"/>
-      <c r="Q17" s="163" t="s">
+      <c r="P17" s="146"/>
+      <c r="Q17" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="R17" s="163" t="s">
+      <c r="R17" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="S17" s="163"/>
-      <c r="T17" s="163" t="s">
+      <c r="S17" s="146"/>
+      <c r="T17" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="U17" s="163" t="s">
+      <c r="U17" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="V17" s="163">
+      <c r="V17" s="146">
         <v>1.133078014365599</v>
       </c>
-      <c r="W17" s="163">
+      <c r="W17" s="146">
         <v>0.58599950343386864</v>
       </c>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="161"/>
-      <c r="B18" s="162">
+      <c r="A18" s="176"/>
+      <c r="B18" s="145">
         <v>1</v>
       </c>
-      <c r="C18" s="162">
+      <c r="C18" s="145">
         <v>0.93167238062241198</v>
       </c>
-      <c r="D18" s="162">
+      <c r="D18" s="145">
         <v>1.4902971176950599</v>
       </c>
-      <c r="E18" s="162">
+      <c r="E18" s="145">
         <v>1.48200142606126</v>
       </c>
-      <c r="F18" s="162">
+      <c r="F18" s="145">
         <v>0.96266158921699496</v>
       </c>
-      <c r="G18" s="162">
+      <c r="G18" s="145">
         <v>0.78882318963897402</v>
       </c>
-      <c r="H18" s="162">
+      <c r="H18" s="145">
         <v>0.89416215563946599</v>
       </c>
-      <c r="I18" s="162">
+      <c r="I18" s="145">
         <v>0.97638610730219499</v>
       </c>
-      <c r="J18" s="162">
+      <c r="J18" s="145">
         <v>0.46980586424030502</v>
       </c>
-      <c r="K18" s="162">
+      <c r="K18" s="145">
         <v>1.61834117996141</v>
       </c>
-      <c r="M18" s="163" t="s">
+      <c r="M18" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="N18" s="163">
+      <c r="N18" s="146">
         <v>1.3550428213709382</v>
       </c>
-      <c r="O18" s="163">
+      <c r="O18" s="146">
         <v>0.83863117948797028</v>
       </c>
-      <c r="P18" s="163" t="s">
+      <c r="P18" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="Q18" s="163">
+      <c r="Q18" s="146">
         <v>1.228438503840017</v>
       </c>
-      <c r="R18" s="163">
+      <c r="R18" s="146">
         <v>0.66613036628817335</v>
       </c>
-      <c r="S18" s="163" t="s">
+      <c r="S18" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="T18" s="163">
+      <c r="T18" s="146">
         <v>1.6062158332764913</v>
       </c>
-      <c r="U18" s="163">
+      <c r="U18" s="146">
         <v>0.64760122180520718</v>
       </c>
-      <c r="V18" s="163"/>
-      <c r="W18" s="163"/>
+      <c r="V18" s="146"/>
+      <c r="W18" s="146"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="161"/>
-      <c r="B19" s="162">
+      <c r="A19" s="176"/>
+      <c r="B19" s="145">
         <v>2</v>
       </c>
-      <c r="C19" s="162">
+      <c r="C19" s="145">
         <v>0.66675965168205897</v>
       </c>
-      <c r="D19" s="162">
+      <c r="D19" s="145">
         <v>2.1135924337069198</v>
       </c>
-      <c r="E19" s="162">
+      <c r="E19" s="145">
         <v>0.77455465765855303</v>
       </c>
-      <c r="F19" s="162">
+      <c r="F19" s="145">
         <v>0.99877600101002495</v>
       </c>
-      <c r="G19" s="162">
+      <c r="G19" s="145">
         <v>0.67810843787485897</v>
       </c>
-      <c r="H19" s="162">
+      <c r="H19" s="145">
         <v>1.09575124028927</v>
       </c>
-      <c r="I19" s="162">
+      <c r="I19" s="145">
         <v>0.92999065998270802</v>
       </c>
-      <c r="J19" s="162">
+      <c r="J19" s="145">
         <v>1.3788496680599001</v>
       </c>
-      <c r="K19" s="162">
+      <c r="K19" s="145">
         <v>1.3354481914744101</v>
       </c>
-      <c r="M19" s="163" t="s">
+      <c r="M19" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="N19" s="163">
+      <c r="N19" s="146">
         <v>1.0682390011531195</v>
       </c>
-      <c r="O19" s="163">
+      <c r="O19" s="146">
         <v>0.35849638991223143</v>
       </c>
-      <c r="P19" s="163" t="s">
+      <c r="P19" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="Q19" s="163">
+      <c r="Q19" s="146">
         <v>0.98859412773519006</v>
       </c>
-      <c r="R19" s="163">
+      <c r="R19" s="146">
         <v>0.47284644685752325</v>
       </c>
-      <c r="S19" s="163" t="s">
+      <c r="S19" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="T19" s="163">
+      <c r="T19" s="146">
         <v>0.99027102811118228</v>
       </c>
-      <c r="U19" s="163">
+      <c r="U19" s="146">
         <v>0.44407820631612566</v>
       </c>
-      <c r="V19" s="163"/>
-      <c r="W19" s="163"/>
+      <c r="V19" s="146"/>
+      <c r="W19" s="146"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="161"/>
-      <c r="B20" s="162">
+      <c r="A20" s="176"/>
+      <c r="B20" s="145">
         <v>3</v>
       </c>
-      <c r="C20" s="162">
+      <c r="C20" s="145">
         <v>1.04380242228774</v>
       </c>
-      <c r="D20" s="162">
+      <c r="D20" s="145">
         <v>0.96712319684889403</v>
       </c>
-      <c r="E20" s="162">
+      <c r="E20" s="145">
         <v>0.93669961329495299</v>
       </c>
-      <c r="F20" s="162">
+      <c r="F20" s="145">
         <v>0.25487784702828098</v>
       </c>
-      <c r="G20" s="162">
+      <c r="G20" s="145">
         <v>0.57369026675184898</v>
       </c>
-      <c r="H20" s="162">
+      <c r="H20" s="145">
         <v>2.0581398353828799</v>
       </c>
-      <c r="I20" s="162">
+      <c r="I20" s="145">
         <v>0.67143875815034104</v>
       </c>
-      <c r="J20" s="162">
+      <c r="J20" s="145">
         <v>0.77075589854126203</v>
       </c>
-      <c r="K20" s="162">
+      <c r="K20" s="145">
         <v>1.73291333442014</v>
       </c>
-      <c r="M20" s="163" t="s">
+      <c r="M20" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="N20" s="163">
+      <c r="N20" s="146">
         <v>1.107981215748745</v>
       </c>
-      <c r="O20" s="163">
+      <c r="O20" s="146">
         <v>0.43085976034341322</v>
       </c>
-      <c r="P20" s="163" t="s">
+      <c r="P20" s="146" t="s">
         <v>58</v>
       </c>
-      <c r="Q20" s="163">
+      <c r="Q20" s="146">
         <v>1.18220141152159</v>
       </c>
-      <c r="R20" s="163">
+      <c r="R20" s="146">
         <v>0.57488303356460924</v>
       </c>
-      <c r="S20" s="163" t="s">
+      <c r="S20" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="T20" s="163">
+      <c r="T20" s="146">
         <v>0.80274718170912296</v>
       </c>
-      <c r="U20" s="163">
+      <c r="U20" s="146">
         <v>0.24540123931091593</v>
       </c>
-      <c r="V20" s="163"/>
-      <c r="W20" s="163"/>
+      <c r="V20" s="146"/>
+      <c r="W20" s="146"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="M21" s="163" t="s">
+      <c r="C21">
+        <f>AVERAGE(C17:K20)</f>
+        <v>1.133078014365599</v>
+      </c>
+      <c r="D21">
+        <f>_xlfn.STDEV.P(C17:K20)</f>
+        <v>0.58599950343386864</v>
+      </c>
+      <c r="M21" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="N21" s="163">
+      <c r="N21" s="146">
         <v>1.0010490191895931</v>
       </c>
-      <c r="O21" s="163">
+      <c r="O21" s="146">
         <v>0.53346569165693092</v>
       </c>
-      <c r="P21" s="163"/>
-      <c r="Q21" s="163"/>
-      <c r="R21" s="163"/>
-      <c r="S21" s="163"/>
-      <c r="T21" s="163"/>
-      <c r="U21" s="163"/>
-      <c r="V21" s="163"/>
-      <c r="W21" s="163"/>
+      <c r="P21" s="146"/>
+      <c r="Q21" s="146"/>
+      <c r="R21" s="146"/>
+      <c r="S21" s="146"/>
+      <c r="T21" s="146"/>
+      <c r="U21" s="146"/>
+      <c r="V21" s="146"/>
+      <c r="W21" s="146"/>
     </row>
     <row r="26" spans="1:23" ht="17.25" thickBot="1"/>
     <row r="27" spans="1:23">
-      <c r="B27" s="167"/>
-      <c r="C27" s="168" t="s">
+      <c r="B27" s="147"/>
+      <c r="C27" s="174" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="168"/>
-      <c r="E27" s="168" t="s">
+      <c r="D27" s="174"/>
+      <c r="E27" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168" t="s">
+      <c r="F27" s="174"/>
+      <c r="G27" s="174" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="169"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="H27" s="175"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="B28" s="170"/>
+      <c r="B28" s="148"/>
       <c r="C28" s="32" t="s">
         <v>74</v>
       </c>
@@ -25158,106 +25205,98 @@
       <c r="G28" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="H28" s="171" t="s">
+      <c r="H28" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="B29" s="170" t="s">
+      <c r="B29" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="172">
-        <v>6.9148644125355681</v>
-      </c>
-      <c r="D29" s="172">
-        <v>1.6968748227653523</v>
-      </c>
-      <c r="E29" s="172">
+      <c r="C29" s="150">
+        <v>6.9148644125355698</v>
+      </c>
+      <c r="D29" s="150">
+        <v>1.6968748227653501</v>
+      </c>
+      <c r="E29" s="150">
         <v>5.5640527999739442</v>
       </c>
-      <c r="F29" s="172">
+      <c r="F29" s="150">
         <v>3.9455678780442422</v>
       </c>
-      <c r="G29" s="172">
+      <c r="G29" s="150">
         <v>7.4761621014512256</v>
       </c>
-      <c r="H29" s="173">
+      <c r="H29" s="151">
         <v>1.3748300931290931</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="B30" s="170" t="s">
+      <c r="B30" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="172">
+      <c r="C30" s="150">
         <v>1.719300821</v>
       </c>
-      <c r="D30" s="172">
+      <c r="D30" s="150">
         <v>1.0670548769999999</v>
       </c>
-      <c r="E30" s="172">
+      <c r="E30" s="150">
         <v>1.295638968</v>
       </c>
-      <c r="F30" s="172">
+      <c r="F30" s="150">
         <v>0.63080498399999996</v>
       </c>
-      <c r="G30" s="172">
+      <c r="G30" s="150">
         <v>1.4609272639999999</v>
       </c>
-      <c r="H30" s="173">
+      <c r="H30" s="151">
         <v>0.46834825600000002</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:23" ht="17.25" thickBot="1">
-      <c r="B31" s="174" t="s">
+      <c r="B31" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="175">
+      <c r="C31" s="153">
         <v>1.228438503840017</v>
       </c>
-      <c r="D31" s="175">
+      <c r="D31" s="153">
         <v>0.66613036628817335</v>
       </c>
-      <c r="E31" s="175">
+      <c r="E31" s="153">
         <v>0.98859412773519006</v>
       </c>
-      <c r="F31" s="175">
+      <c r="F31" s="153">
         <v>0.47284644685752325</v>
       </c>
-      <c r="G31" s="175">
+      <c r="G31" s="153">
         <v>1.18220141152159</v>
       </c>
-      <c r="H31" s="176">
+      <c r="H31" s="154">
         <v>0.57488303356460924</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:23">
-      <c r="B32" s="167"/>
-      <c r="C32" s="168" t="s">
+    </row>
+    <row r="32" spans="1:23" ht="17.25" thickBot="1">
+      <c r="B32" s="147"/>
+      <c r="C32" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="168"/>
-      <c r="E32" s="168" t="s">
+      <c r="D32" s="174"/>
+      <c r="E32" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="168"/>
-      <c r="G32" s="168" t="s">
+      <c r="F32" s="174"/>
+      <c r="G32" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="169"/>
+      <c r="H32" s="175"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="170"/>
+    <row r="33" spans="2:26">
+      <c r="B33" s="148"/>
       <c r="C33" s="32" t="s">
         <v>74</v>
       </c>
@@ -25273,108 +25312,178 @@
       <c r="G33" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="H33" s="171" t="s">
+      <c r="H33" s="149" t="s">
         <v>75</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="170" t="s">
+      <c r="M33" s="174"/>
+      <c r="N33" s="174"/>
+      <c r="O33" s="174"/>
+      <c r="P33" s="174"/>
+      <c r="Q33" s="174"/>
+      <c r="R33" s="175"/>
+      <c r="S33" s="174"/>
+      <c r="T33" s="174"/>
+      <c r="U33" s="174"/>
+      <c r="V33" s="174"/>
+      <c r="W33" s="174"/>
+      <c r="X33" s="174"/>
+      <c r="Y33" s="174"/>
+      <c r="Z33" s="175"/>
+    </row>
+    <row r="34" spans="2:26">
+      <c r="B34" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="172">
+      <c r="C34" s="150">
         <v>7.1229626318905019</v>
       </c>
-      <c r="D34" s="172">
+      <c r="D34" s="150">
         <v>1.4164730550259441</v>
       </c>
-      <c r="E34" s="172">
+      <c r="E34" s="150">
         <v>3.8086606726650665</v>
       </c>
-      <c r="F34" s="172">
+      <c r="F34" s="150">
         <v>2.230772036471746</v>
       </c>
-      <c r="G34" s="172">
+      <c r="G34" s="150">
         <v>9.0234560094051677</v>
       </c>
-      <c r="H34" s="173">
+      <c r="H34" s="151">
         <v>1.1645128073079107</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="170" t="s">
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="149"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="149"/>
+    </row>
+    <row r="35" spans="2:26">
+      <c r="B35" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="172">
+      <c r="C35" s="150">
         <v>2.1769959330000002</v>
       </c>
-      <c r="D35" s="172">
+      <c r="D35" s="150">
         <v>0.70949314900000005</v>
       </c>
-      <c r="E35" s="172">
+      <c r="E35" s="150">
         <v>1.2271566410000001</v>
       </c>
-      <c r="F35" s="172">
+      <c r="F35" s="150">
         <v>0.73470581099999999</v>
       </c>
-      <c r="G35" s="172">
+      <c r="G35" s="150">
         <v>1.0717144789999999</v>
       </c>
-      <c r="H35" s="173">
+      <c r="H35" s="151">
         <v>0.29645480499999999</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B36" s="174" t="s">
+      <c r="M35" s="150"/>
+      <c r="N35" s="150"/>
+      <c r="O35" s="150"/>
+      <c r="P35" s="150"/>
+      <c r="Q35" s="150"/>
+      <c r="R35" s="151"/>
+      <c r="S35" s="150"/>
+      <c r="T35" s="150"/>
+      <c r="U35" s="150"/>
+      <c r="V35" s="150"/>
+      <c r="W35" s="150"/>
+      <c r="X35" s="150"/>
+      <c r="Y35" s="150"/>
+      <c r="Z35" s="151"/>
+    </row>
+    <row r="36" spans="2:26" ht="17.25" thickBot="1">
+      <c r="B36" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="175">
+      <c r="C36" s="153">
         <v>1.6062158332764913</v>
       </c>
-      <c r="D36" s="175">
+      <c r="D36" s="153">
         <v>0.64760122180520718</v>
       </c>
-      <c r="E36" s="175">
+      <c r="E36" s="153">
         <v>0.99027102811118228</v>
       </c>
-      <c r="F36" s="175">
+      <c r="F36" s="153">
         <v>0.44407820631612566</v>
       </c>
-      <c r="G36" s="175">
+      <c r="G36" s="153">
         <v>0.80274718170912296</v>
       </c>
-      <c r="H36" s="176">
+      <c r="H36" s="154">
         <v>0.24540123931091593</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="167"/>
-      <c r="C37" s="168" t="s">
+      <c r="M36" s="150"/>
+      <c r="N36" s="150"/>
+      <c r="O36" s="150"/>
+      <c r="P36" s="150"/>
+      <c r="Q36" s="150"/>
+      <c r="R36" s="151"/>
+      <c r="S36" s="150"/>
+      <c r="T36" s="150"/>
+      <c r="U36" s="150"/>
+      <c r="V36" s="150"/>
+      <c r="W36" s="150"/>
+      <c r="X36" s="150"/>
+      <c r="Y36" s="150"/>
+      <c r="Z36" s="151"/>
+    </row>
+    <row r="37" spans="2:26" ht="17.25" thickBot="1">
+      <c r="B37" s="147"/>
+      <c r="C37" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="168"/>
-      <c r="E37" s="168" t="s">
+      <c r="D37" s="174"/>
+      <c r="E37" s="174" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="168"/>
-      <c r="G37" s="168" t="s">
+      <c r="F37" s="174"/>
+      <c r="G37" s="174" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="168"/>
-      <c r="I37" s="168" t="s">
+      <c r="H37" s="174"/>
+      <c r="I37" s="174" t="s">
         <v>73</v>
       </c>
-      <c r="J37" s="169"/>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="170"/>
+      <c r="J37" s="175"/>
+      <c r="M37" s="153"/>
+      <c r="N37" s="153"/>
+      <c r="O37" s="153"/>
+      <c r="P37" s="153"/>
+      <c r="Q37" s="153"/>
+      <c r="R37" s="154"/>
+      <c r="S37" s="153"/>
+      <c r="T37" s="153"/>
+      <c r="U37" s="153"/>
+      <c r="V37" s="153"/>
+      <c r="W37" s="153"/>
+      <c r="X37" s="153"/>
+      <c r="Y37" s="153"/>
+      <c r="Z37" s="154"/>
+    </row>
+    <row r="38" spans="2:26">
+      <c r="B38" s="148"/>
       <c r="C38" s="32" t="s">
         <v>74</v>
       </c>
@@ -25396,99 +25505,290 @@
       <c r="I38" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="J38" s="171" t="s">
+      <c r="J38" s="149" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="170" t="s">
+    <row r="39" spans="2:26">
+      <c r="B39" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="172">
+      <c r="C39" s="150">
         <v>6.9001065911790498</v>
       </c>
-      <c r="D39" s="172">
+      <c r="D39" s="150">
         <v>2.7843420969690222</v>
       </c>
-      <c r="E39" s="172">
+      <c r="E39" s="150">
         <v>6.4615451249188016</v>
       </c>
-      <c r="F39" s="172">
+      <c r="F39" s="150">
         <v>2.6137540868663391</v>
       </c>
-      <c r="G39" s="172">
+      <c r="G39" s="150">
         <v>6.6712748997827429</v>
       </c>
-      <c r="H39" s="172">
+      <c r="H39" s="150">
         <v>2.799661699711979</v>
       </c>
-      <c r="I39" s="172">
+      <c r="I39" s="150">
         <v>6.5738458027337234</v>
       </c>
-      <c r="J39" s="173">
+      <c r="J39" s="151">
         <v>2.6768147548156702</v>
       </c>
     </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="170" t="s">
+    <row r="40" spans="2:26">
+      <c r="B40" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="172">
+      <c r="C40" s="150">
         <v>1.704250327</v>
       </c>
-      <c r="D40" s="172">
+      <c r="D40" s="150">
         <v>0.91829005200000002</v>
       </c>
-      <c r="E40" s="172">
+      <c r="E40" s="150">
         <v>1.419765151</v>
       </c>
-      <c r="F40" s="172">
+      <c r="F40" s="150">
         <v>0.66022194400000001</v>
       </c>
-      <c r="G40" s="172">
+      <c r="G40" s="150">
         <v>1.538671393</v>
       </c>
-      <c r="H40" s="172">
+      <c r="H40" s="150">
         <v>0.90507481000000001</v>
       </c>
-      <c r="I40" s="172">
+      <c r="I40" s="150">
         <v>1.305135865</v>
       </c>
-      <c r="J40" s="173">
+      <c r="J40" s="151">
         <v>0.52637635500000002</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B41" s="174" t="s">
+    <row r="41" spans="2:26" ht="17.25" thickBot="1">
+      <c r="B41" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="175">
+      <c r="C41" s="153">
         <v>1.3550428213709382</v>
       </c>
-      <c r="D41" s="175">
+      <c r="D41" s="153">
         <v>0.83863117948797028</v>
       </c>
-      <c r="E41" s="175">
+      <c r="E41" s="153">
         <v>1.0682390011531195</v>
       </c>
-      <c r="F41" s="175">
+      <c r="F41" s="153">
         <v>0.35849638991223143</v>
       </c>
-      <c r="G41" s="175">
+      <c r="G41" s="153">
         <v>1.107981215748745</v>
       </c>
-      <c r="H41" s="175">
+      <c r="H41" s="153">
         <v>0.43085976034341322</v>
       </c>
-      <c r="I41" s="175">
+      <c r="I41" s="153">
         <v>1.0010490191895931</v>
       </c>
-      <c r="J41" s="176">
+      <c r="J41" s="154">
         <v>0.53346569165693092</v>
       </c>
     </row>
+    <row r="43" spans="2:26">
+      <c r="C43" s="177"/>
+      <c r="D43" s="177"/>
+      <c r="E43" s="177"/>
+      <c r="F43" s="177"/>
+      <c r="G43" s="177"/>
+      <c r="H43" s="177"/>
+      <c r="I43" s="177"/>
+      <c r="J43" s="177"/>
+      <c r="K43" s="177"/>
+      <c r="L43" s="177"/>
+    </row>
+    <row r="44" spans="2:26">
+      <c r="C44" s="177" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="177"/>
+      <c r="E44" s="177"/>
+      <c r="F44" s="177" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="177"/>
+      <c r="H44" s="177"/>
+      <c r="I44" s="177" t="s">
+        <v>76</v>
+      </c>
+      <c r="J44" s="177"/>
+      <c r="K44" s="177"/>
+      <c r="L44" s="177"/>
+    </row>
+    <row r="45" spans="2:26">
+      <c r="C45">
+        <v>-30</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>30</v>
+      </c>
+      <c r="F45">
+        <v>-20</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>20</v>
+      </c>
+      <c r="I45">
+        <v>0.9</v>
+      </c>
+      <c r="J45">
+        <v>1.7</v>
+      </c>
+      <c r="K45">
+        <v>2.5</v>
+      </c>
+      <c r="L45">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26">
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="150">
+        <v>6.9148644125355698</v>
+      </c>
+      <c r="D46" s="150">
+        <v>5.5640527999739442</v>
+      </c>
+      <c r="E46" s="150">
+        <v>7.4761621014512256</v>
+      </c>
+      <c r="F46" s="150">
+        <v>7.1229626318905019</v>
+      </c>
+      <c r="G46" s="150">
+        <v>3.8086606726650665</v>
+      </c>
+      <c r="H46" s="150">
+        <v>9.0234560094051677</v>
+      </c>
+      <c r="I46" s="150">
+        <v>6.9001065911790498</v>
+      </c>
+      <c r="J46" s="150">
+        <v>6.4615451249188016</v>
+      </c>
+      <c r="K46" s="150">
+        <v>6.6712748997827429</v>
+      </c>
+      <c r="L46" s="150">
+        <v>6.5738458027337234</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26">
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="150">
+        <v>1.719300821</v>
+      </c>
+      <c r="D47" s="150">
+        <v>1.295638968</v>
+      </c>
+      <c r="E47" s="150">
+        <v>1.4609272639999999</v>
+      </c>
+      <c r="F47" s="150">
+        <v>2.1769959330000002</v>
+      </c>
+      <c r="G47" s="150">
+        <v>1.2271566410000001</v>
+      </c>
+      <c r="H47" s="150">
+        <v>1.0717144789999999</v>
+      </c>
+      <c r="I47" s="150">
+        <v>1.704250327</v>
+      </c>
+      <c r="J47" s="150">
+        <v>1.419765151</v>
+      </c>
+      <c r="K47" s="150">
+        <v>1.538671393</v>
+      </c>
+      <c r="L47" s="150">
+        <v>1.305135865</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" ht="17.25" thickBot="1">
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="153">
+        <v>1.228438503840017</v>
+      </c>
+      <c r="D48" s="153">
+        <v>0.98859412773519006</v>
+      </c>
+      <c r="E48" s="153">
+        <v>1.18220141152159</v>
+      </c>
+      <c r="F48" s="153">
+        <v>1.6062158332764913</v>
+      </c>
+      <c r="G48" s="153">
+        <v>0.99027102811118228</v>
+      </c>
+      <c r="H48" s="153">
+        <v>0.80274718170912296</v>
+      </c>
+      <c r="I48" s="153">
+        <v>1.3550428213709382</v>
+      </c>
+      <c r="J48" s="153">
+        <v>1.0682390011531195</v>
+      </c>
+      <c r="K48" s="153">
+        <v>1.107981215748745</v>
+      </c>
+      <c r="L48" s="153">
+        <v>1.0010490191895931</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="33">
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="C43:L43"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="M33:N33"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="S2:U2"/>
@@ -25498,19 +25798,6 @@
     <mergeCell ref="P9:R9"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="M16:O16"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/e_for_targets.xlsx
+++ b/e_for_targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motionlab_3080\Desktop\projects\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E889D3-D949-4269-94EB-EF12837ADAF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C31FC2-2FF6-4B60-902B-3B8AF833528E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -764,7 +764,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="54">
+  <fills count="55">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1067,6 +1067,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1734,7 +1740,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2200,16 +2206,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="22" fillId="38" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="22" fillId="38" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="22" fillId="52" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="22" fillId="37" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2218,13 +2221,13 @@
     <xf numFmtId="179" fontId="22" fillId="37" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="38" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="38" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="52" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="22" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2239,13 +2242,28 @@
     <xf numFmtId="179" fontId="22" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2257,16 +2275,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="54" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="54" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="54" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="54" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14568,62 +14586,62 @@
     <row r="150" spans="1:44">
       <c r="A150" s="3"/>
       <c r="B150" s="23"/>
-      <c r="C150" s="155" t="s">
+      <c r="C150" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="D150" s="155"/>
-      <c r="E150" s="155"/>
-      <c r="F150" s="155"/>
-      <c r="G150" s="155"/>
-      <c r="H150" s="155"/>
-      <c r="I150" s="155"/>
-      <c r="J150" s="155"/>
-      <c r="K150" s="155"/>
-      <c r="M150" s="155" t="s">
+      <c r="D150" s="167"/>
+      <c r="E150" s="167"/>
+      <c r="F150" s="167"/>
+      <c r="G150" s="167"/>
+      <c r="H150" s="167"/>
+      <c r="I150" s="167"/>
+      <c r="J150" s="167"/>
+      <c r="K150" s="167"/>
+      <c r="M150" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="N150" s="155"/>
-      <c r="O150" s="155"/>
-      <c r="P150" s="155"/>
-      <c r="Q150" s="155"/>
-      <c r="R150" s="155"/>
-      <c r="S150" s="155"/>
-      <c r="T150" s="155"/>
-      <c r="U150" s="155"/>
+      <c r="N150" s="167"/>
+      <c r="O150" s="167"/>
+      <c r="P150" s="167"/>
+      <c r="Q150" s="167"/>
+      <c r="R150" s="167"/>
+      <c r="S150" s="167"/>
+      <c r="T150" s="167"/>
+      <c r="U150" s="167"/>
     </row>
     <row r="151" spans="1:44">
       <c r="A151" s="3"/>
       <c r="B151" s="23"/>
-      <c r="C151" s="155" t="s">
+      <c r="C151" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="D151" s="155"/>
-      <c r="E151" s="155"/>
-      <c r="F151" s="155" t="s">
+      <c r="D151" s="167"/>
+      <c r="E151" s="167"/>
+      <c r="F151" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G151" s="155"/>
-      <c r="H151" s="155"/>
-      <c r="I151" s="155" t="s">
+      <c r="G151" s="167"/>
+      <c r="H151" s="167"/>
+      <c r="I151" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="J151" s="155"/>
-      <c r="K151" s="155"/>
-      <c r="M151" s="155" t="s">
+      <c r="J151" s="167"/>
+      <c r="K151" s="167"/>
+      <c r="M151" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="N151" s="155"/>
-      <c r="O151" s="155"/>
-      <c r="P151" s="155" t="s">
+      <c r="N151" s="167"/>
+      <c r="O151" s="167"/>
+      <c r="P151" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="Q151" s="155"/>
-      <c r="R151" s="155"/>
-      <c r="S151" s="155" t="s">
+      <c r="Q151" s="167"/>
+      <c r="R151" s="167"/>
+      <c r="S151" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="T151" s="155"/>
-      <c r="U151" s="155"/>
+      <c r="T151" s="167"/>
+      <c r="U151" s="167"/>
     </row>
     <row r="152" spans="1:44" ht="28.5">
       <c r="A152" s="4"/>
@@ -15904,62 +15922,62 @@
     <row r="165" spans="1:41">
       <c r="A165" s="4"/>
       <c r="B165" s="23"/>
-      <c r="C165" s="155" t="s">
+      <c r="C165" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="D165" s="155"/>
-      <c r="E165" s="155"/>
-      <c r="F165" s="155"/>
-      <c r="G165" s="155"/>
-      <c r="H165" s="155"/>
-      <c r="I165" s="155"/>
-      <c r="J165" s="155"/>
-      <c r="K165" s="155"/>
-      <c r="M165" s="155" t="s">
+      <c r="D165" s="167"/>
+      <c r="E165" s="167"/>
+      <c r="F165" s="167"/>
+      <c r="G165" s="167"/>
+      <c r="H165" s="167"/>
+      <c r="I165" s="167"/>
+      <c r="J165" s="167"/>
+      <c r="K165" s="167"/>
+      <c r="M165" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="N165" s="155"/>
-      <c r="O165" s="155"/>
-      <c r="P165" s="155"/>
-      <c r="Q165" s="155"/>
-      <c r="R165" s="155"/>
-      <c r="S165" s="155"/>
-      <c r="T165" s="155"/>
-      <c r="U165" s="155"/>
+      <c r="N165" s="167"/>
+      <c r="O165" s="167"/>
+      <c r="P165" s="167"/>
+      <c r="Q165" s="167"/>
+      <c r="R165" s="167"/>
+      <c r="S165" s="167"/>
+      <c r="T165" s="167"/>
+      <c r="U165" s="167"/>
     </row>
     <row r="166" spans="1:41">
       <c r="A166" s="4"/>
       <c r="B166" s="23"/>
-      <c r="C166" s="155" t="s">
+      <c r="C166" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="D166" s="155"/>
-      <c r="E166" s="155"/>
-      <c r="F166" s="155" t="s">
+      <c r="D166" s="167"/>
+      <c r="E166" s="167"/>
+      <c r="F166" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G166" s="155"/>
-      <c r="H166" s="155"/>
-      <c r="I166" s="155" t="s">
+      <c r="G166" s="167"/>
+      <c r="H166" s="167"/>
+      <c r="I166" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="J166" s="155"/>
-      <c r="K166" s="155"/>
-      <c r="M166" s="155" t="s">
+      <c r="J166" s="167"/>
+      <c r="K166" s="167"/>
+      <c r="M166" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="N166" s="155"/>
-      <c r="O166" s="155"/>
-      <c r="P166" s="155" t="s">
+      <c r="N166" s="167"/>
+      <c r="O166" s="167"/>
+      <c r="P166" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="Q166" s="155"/>
-      <c r="R166" s="155"/>
-      <c r="S166" s="155" t="s">
+      <c r="Q166" s="167"/>
+      <c r="R166" s="167"/>
+      <c r="S166" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="T166" s="155"/>
-      <c r="U166" s="155"/>
+      <c r="T166" s="167"/>
+      <c r="U166" s="167"/>
     </row>
     <row r="167" spans="1:41" ht="28.5">
       <c r="A167" s="4"/>
@@ -17163,21 +17181,21 @@
     </row>
     <row r="180" spans="1:41">
       <c r="B180" s="23"/>
-      <c r="C180" s="155" t="s">
+      <c r="C180" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="D180" s="155"/>
-      <c r="E180" s="155"/>
-      <c r="F180" s="155" t="s">
+      <c r="D180" s="167"/>
+      <c r="E180" s="167"/>
+      <c r="F180" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G180" s="155"/>
-      <c r="H180" s="155"/>
-      <c r="I180" s="155" t="s">
+      <c r="G180" s="167"/>
+      <c r="H180" s="167"/>
+      <c r="I180" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="J180" s="155"/>
-      <c r="K180" s="155"/>
+      <c r="J180" s="167"/>
+      <c r="K180" s="167"/>
       <c r="W180" s="30"/>
       <c r="X180" s="30"/>
       <c r="Y180" s="30"/>
@@ -19558,80 +19576,80 @@
     <row r="222" spans="1:41" ht="16.5" customHeight="1">
       <c r="A222" s="71"/>
       <c r="B222" s="111"/>
-      <c r="C222" s="156" t="s">
+      <c r="C222" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="D222" s="157"/>
-      <c r="E222" s="157"/>
-      <c r="F222" s="157"/>
-      <c r="G222" s="157"/>
-      <c r="H222" s="157"/>
-      <c r="I222" s="157"/>
-      <c r="J222" s="157"/>
-      <c r="K222" s="158"/>
+      <c r="D222" s="169"/>
+      <c r="E222" s="169"/>
+      <c r="F222" s="169"/>
+      <c r="G222" s="169"/>
+      <c r="H222" s="169"/>
+      <c r="I222" s="169"/>
+      <c r="J222" s="169"/>
+      <c r="K222" s="170"/>
       <c r="L222" s="71"/>
       <c r="M222" s="37"/>
-      <c r="N222" s="156" t="s">
+      <c r="N222" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="O222" s="157"/>
-      <c r="P222" s="157"/>
-      <c r="Q222" s="157"/>
-      <c r="R222" s="157"/>
-      <c r="S222" s="157"/>
-      <c r="T222" s="157"/>
-      <c r="U222" s="157"/>
-      <c r="V222" s="158"/>
+      <c r="O222" s="169"/>
+      <c r="P222" s="169"/>
+      <c r="Q222" s="169"/>
+      <c r="R222" s="169"/>
+      <c r="S222" s="169"/>
+      <c r="T222" s="169"/>
+      <c r="U222" s="169"/>
+      <c r="V222" s="170"/>
       <c r="W222" s="71"/>
       <c r="X222" s="71"/>
       <c r="Y222" s="71"/>
     </row>
     <row r="223" spans="1:41" ht="16.5" customHeight="1">
       <c r="A223" s="71"/>
-      <c r="B223" s="164" t="s">
+      <c r="B223" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="C223" s="159" t="s">
+      <c r="C223" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="D223" s="160"/>
-      <c r="E223" s="160"/>
-      <c r="F223" s="163" t="s">
+      <c r="D223" s="159"/>
+      <c r="E223" s="159"/>
+      <c r="F223" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="G223" s="163"/>
-      <c r="H223" s="163"/>
-      <c r="I223" s="161" t="s">
+      <c r="G223" s="157"/>
+      <c r="H223" s="157"/>
+      <c r="I223" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="J223" s="161"/>
-      <c r="K223" s="162"/>
+      <c r="J223" s="155"/>
+      <c r="K223" s="156"/>
       <c r="L223" s="71"/>
-      <c r="M223" s="166" t="s">
+      <c r="M223" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="N223" s="159" t="s">
+      <c r="N223" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="O223" s="160"/>
-      <c r="P223" s="160"/>
-      <c r="Q223" s="163" t="s">
+      <c r="O223" s="159"/>
+      <c r="P223" s="159"/>
+      <c r="Q223" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="R223" s="163"/>
-      <c r="S223" s="163"/>
-      <c r="T223" s="161" t="s">
+      <c r="R223" s="157"/>
+      <c r="S223" s="157"/>
+      <c r="T223" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="U223" s="161"/>
-      <c r="V223" s="162"/>
+      <c r="U223" s="155"/>
+      <c r="V223" s="156"/>
       <c r="W223" s="71"/>
       <c r="X223" s="71"/>
       <c r="Y223" s="71"/>
     </row>
     <row r="224" spans="1:41" ht="30" customHeight="1">
       <c r="A224" s="71"/>
-      <c r="B224" s="165"/>
+      <c r="B224" s="164"/>
       <c r="C224" s="138" t="s">
         <v>36</v>
       </c>
@@ -19660,7 +19678,7 @@
         <v>41</v>
       </c>
       <c r="L224" s="71"/>
-      <c r="M224" s="167"/>
+      <c r="M224" s="166"/>
       <c r="N224" s="138" t="s">
         <v>36</v>
       </c>
@@ -20842,80 +20860,80 @@
     <row r="236" spans="1:36">
       <c r="A236" s="71"/>
       <c r="B236" s="37"/>
-      <c r="C236" s="156" t="s">
+      <c r="C236" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="D236" s="157"/>
-      <c r="E236" s="157"/>
-      <c r="F236" s="157"/>
-      <c r="G236" s="157"/>
-      <c r="H236" s="157"/>
-      <c r="I236" s="157"/>
-      <c r="J236" s="157"/>
-      <c r="K236" s="158"/>
+      <c r="D236" s="169"/>
+      <c r="E236" s="169"/>
+      <c r="F236" s="169"/>
+      <c r="G236" s="169"/>
+      <c r="H236" s="169"/>
+      <c r="I236" s="169"/>
+      <c r="J236" s="169"/>
+      <c r="K236" s="170"/>
       <c r="L236" s="71"/>
       <c r="M236" s="37"/>
-      <c r="N236" s="156" t="s">
+      <c r="N236" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="O236" s="157"/>
-      <c r="P236" s="157"/>
-      <c r="Q236" s="157"/>
-      <c r="R236" s="157"/>
-      <c r="S236" s="157"/>
-      <c r="T236" s="157"/>
-      <c r="U236" s="157"/>
-      <c r="V236" s="158"/>
+      <c r="O236" s="169"/>
+      <c r="P236" s="169"/>
+      <c r="Q236" s="169"/>
+      <c r="R236" s="169"/>
+      <c r="S236" s="169"/>
+      <c r="T236" s="169"/>
+      <c r="U236" s="169"/>
+      <c r="V236" s="170"/>
       <c r="W236" s="71"/>
       <c r="X236" s="71"/>
       <c r="Y236" s="71"/>
     </row>
     <row r="237" spans="1:36">
       <c r="A237" s="71"/>
-      <c r="B237" s="164" t="s">
+      <c r="B237" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="C237" s="159" t="s">
+      <c r="C237" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="D237" s="160"/>
-      <c r="E237" s="160"/>
-      <c r="F237" s="163" t="s">
+      <c r="D237" s="159"/>
+      <c r="E237" s="159"/>
+      <c r="F237" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="G237" s="163"/>
-      <c r="H237" s="163"/>
-      <c r="I237" s="161" t="s">
+      <c r="G237" s="157"/>
+      <c r="H237" s="157"/>
+      <c r="I237" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="J237" s="161"/>
-      <c r="K237" s="162"/>
+      <c r="J237" s="155"/>
+      <c r="K237" s="156"/>
       <c r="L237" s="71"/>
-      <c r="M237" s="164" t="s">
+      <c r="M237" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="N237" s="159" t="s">
+      <c r="N237" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="O237" s="160"/>
-      <c r="P237" s="160"/>
-      <c r="Q237" s="163" t="s">
+      <c r="O237" s="159"/>
+      <c r="P237" s="159"/>
+      <c r="Q237" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="R237" s="163"/>
-      <c r="S237" s="163"/>
-      <c r="T237" s="161" t="s">
+      <c r="R237" s="157"/>
+      <c r="S237" s="157"/>
+      <c r="T237" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="U237" s="161"/>
-      <c r="V237" s="162"/>
+      <c r="U237" s="155"/>
+      <c r="V237" s="156"/>
       <c r="W237" s="71"/>
       <c r="X237" s="71"/>
       <c r="Y237" s="71"/>
     </row>
     <row r="238" spans="1:36" ht="30">
       <c r="A238" s="71"/>
-      <c r="B238" s="165"/>
+      <c r="B238" s="164"/>
       <c r="C238" s="138" t="s">
         <v>19</v>
       </c>
@@ -20944,7 +20962,7 @@
         <v>27</v>
       </c>
       <c r="L238" s="71"/>
-      <c r="M238" s="165"/>
+      <c r="M238" s="164"/>
       <c r="N238" s="138" t="s">
         <v>19</v>
       </c>
@@ -22014,78 +22032,78 @@
     <row r="257" spans="1:24" ht="17.25">
       <c r="A257" s="71"/>
       <c r="B257" s="37"/>
-      <c r="C257" s="168" t="s">
+      <c r="C257" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="D257" s="169"/>
-      <c r="E257" s="169"/>
-      <c r="F257" s="169"/>
-      <c r="G257" s="169"/>
-      <c r="H257" s="169"/>
-      <c r="I257" s="169"/>
-      <c r="J257" s="169"/>
-      <c r="K257" s="170"/>
+      <c r="D257" s="161"/>
+      <c r="E257" s="161"/>
+      <c r="F257" s="161"/>
+      <c r="G257" s="161"/>
+      <c r="H257" s="161"/>
+      <c r="I257" s="161"/>
+      <c r="J257" s="161"/>
+      <c r="K257" s="162"/>
       <c r="L257" s="71"/>
       <c r="M257" s="37"/>
-      <c r="N257" s="168" t="s">
+      <c r="N257" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="O257" s="169"/>
-      <c r="P257" s="169"/>
-      <c r="Q257" s="169"/>
-      <c r="R257" s="169"/>
-      <c r="S257" s="169"/>
-      <c r="T257" s="169"/>
-      <c r="U257" s="169"/>
-      <c r="V257" s="170"/>
+      <c r="O257" s="161"/>
+      <c r="P257" s="161"/>
+      <c r="Q257" s="161"/>
+      <c r="R257" s="161"/>
+      <c r="S257" s="161"/>
+      <c r="T257" s="161"/>
+      <c r="U257" s="161"/>
+      <c r="V257" s="162"/>
       <c r="W257" s="71"/>
       <c r="X257" s="71"/>
     </row>
     <row r="258" spans="1:24">
       <c r="A258" s="71"/>
-      <c r="B258" s="164" t="s">
+      <c r="B258" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="C258" s="159" t="s">
+      <c r="C258" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="D258" s="160"/>
-      <c r="E258" s="160"/>
-      <c r="F258" s="163" t="s">
+      <c r="D258" s="159"/>
+      <c r="E258" s="159"/>
+      <c r="F258" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="G258" s="163"/>
-      <c r="H258" s="163"/>
-      <c r="I258" s="161" t="s">
+      <c r="G258" s="157"/>
+      <c r="H258" s="157"/>
+      <c r="I258" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="J258" s="161"/>
-      <c r="K258" s="162"/>
+      <c r="J258" s="155"/>
+      <c r="K258" s="156"/>
       <c r="L258" s="71"/>
-      <c r="M258" s="166" t="s">
+      <c r="M258" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="N258" s="159" t="s">
+      <c r="N258" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="O258" s="160"/>
-      <c r="P258" s="160"/>
-      <c r="Q258" s="163" t="s">
+      <c r="O258" s="159"/>
+      <c r="P258" s="159"/>
+      <c r="Q258" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="R258" s="163"/>
-      <c r="S258" s="163"/>
-      <c r="T258" s="161" t="s">
+      <c r="R258" s="157"/>
+      <c r="S258" s="157"/>
+      <c r="T258" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="U258" s="161"/>
-      <c r="V258" s="162"/>
+      <c r="U258" s="155"/>
+      <c r="V258" s="156"/>
       <c r="W258" s="71"/>
       <c r="X258" s="71"/>
     </row>
     <row r="259" spans="1:24" ht="30" customHeight="1">
       <c r="A259" s="71"/>
-      <c r="B259" s="165"/>
+      <c r="B259" s="164"/>
       <c r="C259" s="138" t="s">
         <v>36</v>
       </c>
@@ -22114,7 +22132,7 @@
         <v>41</v>
       </c>
       <c r="L259" s="71"/>
-      <c r="M259" s="167"/>
+      <c r="M259" s="166"/>
       <c r="N259" s="138" t="s">
         <v>36</v>
       </c>
@@ -23014,78 +23032,78 @@
     <row r="271" spans="1:24" ht="17.25">
       <c r="A271" s="71"/>
       <c r="B271" s="37"/>
-      <c r="C271" s="168" t="s">
+      <c r="C271" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="D271" s="169"/>
-      <c r="E271" s="169"/>
-      <c r="F271" s="169"/>
-      <c r="G271" s="169"/>
-      <c r="H271" s="169"/>
-      <c r="I271" s="169"/>
-      <c r="J271" s="169"/>
-      <c r="K271" s="170"/>
+      <c r="D271" s="161"/>
+      <c r="E271" s="161"/>
+      <c r="F271" s="161"/>
+      <c r="G271" s="161"/>
+      <c r="H271" s="161"/>
+      <c r="I271" s="161"/>
+      <c r="J271" s="161"/>
+      <c r="K271" s="162"/>
       <c r="L271" s="71"/>
       <c r="M271" s="37"/>
-      <c r="N271" s="168" t="s">
+      <c r="N271" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="O271" s="169"/>
-      <c r="P271" s="169"/>
-      <c r="Q271" s="169"/>
-      <c r="R271" s="169"/>
-      <c r="S271" s="169"/>
-      <c r="T271" s="169"/>
-      <c r="U271" s="169"/>
-      <c r="V271" s="170"/>
+      <c r="O271" s="161"/>
+      <c r="P271" s="161"/>
+      <c r="Q271" s="161"/>
+      <c r="R271" s="161"/>
+      <c r="S271" s="161"/>
+      <c r="T271" s="161"/>
+      <c r="U271" s="161"/>
+      <c r="V271" s="162"/>
       <c r="W271" s="71"/>
       <c r="X271" s="71"/>
     </row>
     <row r="272" spans="1:24">
       <c r="A272" s="71"/>
-      <c r="B272" s="164" t="s">
+      <c r="B272" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="C272" s="159" t="s">
+      <c r="C272" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="D272" s="160"/>
-      <c r="E272" s="160"/>
-      <c r="F272" s="163" t="s">
+      <c r="D272" s="159"/>
+      <c r="E272" s="159"/>
+      <c r="F272" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="G272" s="163"/>
-      <c r="H272" s="163"/>
-      <c r="I272" s="161" t="s">
+      <c r="G272" s="157"/>
+      <c r="H272" s="157"/>
+      <c r="I272" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="J272" s="161"/>
-      <c r="K272" s="162"/>
+      <c r="J272" s="155"/>
+      <c r="K272" s="156"/>
       <c r="L272" s="71"/>
-      <c r="M272" s="164" t="s">
+      <c r="M272" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="N272" s="159" t="s">
+      <c r="N272" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="O272" s="160"/>
-      <c r="P272" s="160"/>
-      <c r="Q272" s="163" t="s">
+      <c r="O272" s="159"/>
+      <c r="P272" s="159"/>
+      <c r="Q272" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="R272" s="163"/>
-      <c r="S272" s="163"/>
-      <c r="T272" s="161" t="s">
+      <c r="R272" s="157"/>
+      <c r="S272" s="157"/>
+      <c r="T272" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="U272" s="161"/>
-      <c r="V272" s="162"/>
+      <c r="U272" s="155"/>
+      <c r="V272" s="156"/>
       <c r="W272" s="71"/>
       <c r="X272" s="71"/>
     </row>
     <row r="273" spans="1:24" ht="30" customHeight="1">
       <c r="A273" s="71"/>
-      <c r="B273" s="165"/>
+      <c r="B273" s="164"/>
       <c r="C273" s="138" t="s">
         <v>36</v>
       </c>
@@ -23114,7 +23132,7 @@
         <v>41</v>
       </c>
       <c r="L273" s="71"/>
-      <c r="M273" s="165"/>
+      <c r="M273" s="164"/>
       <c r="N273" s="138" t="s">
         <v>36</v>
       </c>
@@ -24091,40 +24109,16 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="T272:V272"/>
-    <mergeCell ref="Q272:S272"/>
-    <mergeCell ref="N272:P272"/>
-    <mergeCell ref="T223:V223"/>
-    <mergeCell ref="Q223:S223"/>
-    <mergeCell ref="N223:P223"/>
-    <mergeCell ref="N271:V271"/>
-    <mergeCell ref="N257:V257"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="M223:M224"/>
-    <mergeCell ref="F223:H223"/>
-    <mergeCell ref="I223:K223"/>
-    <mergeCell ref="T237:V237"/>
-    <mergeCell ref="Q237:S237"/>
-    <mergeCell ref="N237:P237"/>
-    <mergeCell ref="I237:K237"/>
-    <mergeCell ref="F237:H237"/>
-    <mergeCell ref="C237:E237"/>
-    <mergeCell ref="B237:B238"/>
-    <mergeCell ref="M272:M273"/>
-    <mergeCell ref="B272:B273"/>
-    <mergeCell ref="I258:K258"/>
-    <mergeCell ref="F258:H258"/>
-    <mergeCell ref="C258:E258"/>
-    <mergeCell ref="I272:K272"/>
-    <mergeCell ref="F272:H272"/>
-    <mergeCell ref="C272:E272"/>
-    <mergeCell ref="C271:K271"/>
-    <mergeCell ref="T258:V258"/>
-    <mergeCell ref="Q258:S258"/>
-    <mergeCell ref="N258:P258"/>
-    <mergeCell ref="B258:B259"/>
-    <mergeCell ref="M237:M238"/>
-    <mergeCell ref="M258:M259"/>
+    <mergeCell ref="C150:K150"/>
+    <mergeCell ref="M150:U150"/>
+    <mergeCell ref="C165:K165"/>
+    <mergeCell ref="M165:U165"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="F151:H151"/>
+    <mergeCell ref="I151:K151"/>
+    <mergeCell ref="M151:O151"/>
+    <mergeCell ref="P151:R151"/>
+    <mergeCell ref="S151:U151"/>
     <mergeCell ref="C257:K257"/>
     <mergeCell ref="S166:U166"/>
     <mergeCell ref="C180:E180"/>
@@ -24140,16 +24134,40 @@
     <mergeCell ref="C222:K222"/>
     <mergeCell ref="N222:V222"/>
     <mergeCell ref="C223:E223"/>
-    <mergeCell ref="C150:K150"/>
-    <mergeCell ref="M150:U150"/>
-    <mergeCell ref="C165:K165"/>
-    <mergeCell ref="M165:U165"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="F151:H151"/>
-    <mergeCell ref="I151:K151"/>
-    <mergeCell ref="M151:O151"/>
-    <mergeCell ref="P151:R151"/>
-    <mergeCell ref="S151:U151"/>
+    <mergeCell ref="M272:M273"/>
+    <mergeCell ref="B272:B273"/>
+    <mergeCell ref="I258:K258"/>
+    <mergeCell ref="F258:H258"/>
+    <mergeCell ref="C258:E258"/>
+    <mergeCell ref="I272:K272"/>
+    <mergeCell ref="F272:H272"/>
+    <mergeCell ref="C272:E272"/>
+    <mergeCell ref="C271:K271"/>
+    <mergeCell ref="B258:B259"/>
+    <mergeCell ref="M258:M259"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="M223:M224"/>
+    <mergeCell ref="F223:H223"/>
+    <mergeCell ref="I223:K223"/>
+    <mergeCell ref="T237:V237"/>
+    <mergeCell ref="Q237:S237"/>
+    <mergeCell ref="N237:P237"/>
+    <mergeCell ref="I237:K237"/>
+    <mergeCell ref="F237:H237"/>
+    <mergeCell ref="C237:E237"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="M237:M238"/>
+    <mergeCell ref="T272:V272"/>
+    <mergeCell ref="Q272:S272"/>
+    <mergeCell ref="N272:P272"/>
+    <mergeCell ref="T223:V223"/>
+    <mergeCell ref="Q223:S223"/>
+    <mergeCell ref="N223:P223"/>
+    <mergeCell ref="N271:V271"/>
+    <mergeCell ref="N257:V257"/>
+    <mergeCell ref="T258:V258"/>
+    <mergeCell ref="Q258:S258"/>
+    <mergeCell ref="N258:P258"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24159,16 +24177,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D326F56-A869-4233-A5E2-DBC6DB5510CF}">
-  <dimension ref="A2:Z48"/>
+  <dimension ref="A2:Z57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="1:23">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="174" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="145"/>
@@ -24199,21 +24217,21 @@
       <c r="K2" s="145">
         <v>8</v>
       </c>
-      <c r="M2" s="171" t="s">
+      <c r="M2" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="172"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="171" t="s">
+      <c r="N2" s="176"/>
+      <c r="O2" s="177"/>
+      <c r="P2" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="171" t="s">
+      <c r="Q2" s="176"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="175" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="172"/>
-      <c r="U2" s="173"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="177"/>
       <c r="V2" s="146" t="s">
         <v>48</v>
       </c>
@@ -24222,7 +24240,7 @@
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="176"/>
+      <c r="A3" s="174"/>
       <c r="B3" s="145">
         <v>0</v>
       </c>
@@ -24282,7 +24300,7 @@
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="176"/>
+      <c r="A4" s="174"/>
       <c r="B4" s="145">
         <v>1</v>
       </c>
@@ -24345,7 +24363,7 @@
       <c r="W4" s="146"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="176"/>
+      <c r="A5" s="174"/>
       <c r="B5" s="145">
         <v>2</v>
       </c>
@@ -24407,7 +24425,7 @@
       <c r="W5" s="146"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="176"/>
+      <c r="A6" s="174"/>
       <c r="B6" s="145">
         <v>3</v>
       </c>
@@ -24506,7 +24524,7 @@
       <c r="W8" s="144"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="176" t="s">
+      <c r="A9" s="174" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="145"/>
@@ -24537,21 +24555,21 @@
       <c r="K9" s="145">
         <v>8</v>
       </c>
-      <c r="M9" s="171" t="s">
+      <c r="M9" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="172"/>
-      <c r="O9" s="173"/>
-      <c r="P9" s="171" t="s">
+      <c r="N9" s="176"/>
+      <c r="O9" s="177"/>
+      <c r="P9" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="172"/>
-      <c r="R9" s="173"/>
-      <c r="S9" s="171" t="s">
+      <c r="Q9" s="176"/>
+      <c r="R9" s="177"/>
+      <c r="S9" s="175" t="s">
         <v>47</v>
       </c>
-      <c r="T9" s="172"/>
-      <c r="U9" s="173"/>
+      <c r="T9" s="176"/>
+      <c r="U9" s="177"/>
       <c r="V9" s="146" t="s">
         <v>48</v>
       </c>
@@ -24560,7 +24578,7 @@
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="176"/>
+      <c r="A10" s="174"/>
       <c r="B10" s="145">
         <v>0</v>
       </c>
@@ -24620,7 +24638,7 @@
       </c>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="176"/>
+      <c r="A11" s="174"/>
       <c r="B11" s="145">
         <v>1</v>
       </c>
@@ -24682,7 +24700,7 @@
       <c r="W11" s="146"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="176"/>
+      <c r="A12" s="174"/>
       <c r="B12" s="145">
         <v>2</v>
       </c>
@@ -24744,7 +24762,7 @@
       <c r="W12" s="146"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="176"/>
+      <c r="A13" s="174"/>
       <c r="B13" s="145">
         <v>3</v>
       </c>
@@ -24846,7 +24864,7 @@
       <c r="W15" s="144"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="176" t="s">
+      <c r="A16" s="174" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="145"/>
@@ -24877,21 +24895,21 @@
       <c r="K16" s="145">
         <v>8</v>
       </c>
-      <c r="M16" s="171" t="s">
+      <c r="M16" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="N16" s="172"/>
-      <c r="O16" s="173"/>
-      <c r="P16" s="171" t="s">
+      <c r="N16" s="176"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="Q16" s="172"/>
-      <c r="R16" s="173"/>
-      <c r="S16" s="171" t="s">
+      <c r="Q16" s="176"/>
+      <c r="R16" s="177"/>
+      <c r="S16" s="175" t="s">
         <v>47</v>
       </c>
-      <c r="T16" s="172"/>
-      <c r="U16" s="173"/>
+      <c r="T16" s="176"/>
+      <c r="U16" s="177"/>
       <c r="V16" s="146" t="s">
         <v>48</v>
       </c>
@@ -24900,7 +24918,7 @@
       </c>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="176"/>
+      <c r="A17" s="174"/>
       <c r="B17" s="145">
         <v>0</v>
       </c>
@@ -24960,7 +24978,7 @@
       </c>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="176"/>
+      <c r="A18" s="174"/>
       <c r="B18" s="145">
         <v>1</v>
       </c>
@@ -25022,7 +25040,7 @@
       <c r="W18" s="146"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="176"/>
+      <c r="A19" s="174"/>
       <c r="B19" s="145">
         <v>2</v>
       </c>
@@ -25084,7 +25102,7 @@
       <c r="W19" s="146"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="176"/>
+      <c r="A20" s="174"/>
       <c r="B20" s="145">
         <v>3</v>
       </c>
@@ -25175,18 +25193,18 @@
     <row r="26" spans="1:23" ht="17.25" thickBot="1"/>
     <row r="27" spans="1:23">
       <c r="B27" s="147"/>
-      <c r="C27" s="174" t="s">
+      <c r="C27" s="172" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="174"/>
-      <c r="E27" s="174" t="s">
+      <c r="D27" s="172"/>
+      <c r="E27" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="174"/>
-      <c r="G27" s="174" t="s">
+      <c r="F27" s="172"/>
+      <c r="G27" s="172" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="175"/>
+      <c r="H27" s="173"/>
     </row>
     <row r="28" spans="1:23">
       <c r="B28" s="148"/>
@@ -25280,18 +25298,18 @@
     </row>
     <row r="32" spans="1:23" ht="17.25" thickBot="1">
       <c r="B32" s="147"/>
-      <c r="C32" s="174" t="s">
+      <c r="C32" s="172" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="174"/>
-      <c r="E32" s="174" t="s">
+      <c r="D32" s="172"/>
+      <c r="E32" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="174"/>
-      <c r="G32" s="174" t="s">
+      <c r="F32" s="172"/>
+      <c r="G32" s="172" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="175"/>
+      <c r="H32" s="173"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
@@ -25317,30 +25335,30 @@
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="M33" s="174"/>
-      <c r="N33" s="174"/>
-      <c r="O33" s="174"/>
-      <c r="P33" s="174"/>
-      <c r="Q33" s="174"/>
-      <c r="R33" s="175"/>
-      <c r="S33" s="174"/>
-      <c r="T33" s="174"/>
-      <c r="U33" s="174"/>
-      <c r="V33" s="174"/>
-      <c r="W33" s="174"/>
-      <c r="X33" s="174"/>
-      <c r="Y33" s="174"/>
-      <c r="Z33" s="175"/>
+      <c r="M33" s="172"/>
+      <c r="N33" s="172"/>
+      <c r="O33" s="172"/>
+      <c r="P33" s="172"/>
+      <c r="Q33" s="172"/>
+      <c r="R33" s="173"/>
+      <c r="S33" s="172"/>
+      <c r="T33" s="172"/>
+      <c r="U33" s="172"/>
+      <c r="V33" s="172"/>
+      <c r="W33" s="172"/>
+      <c r="X33" s="172"/>
+      <c r="Y33" s="172"/>
+      <c r="Z33" s="173"/>
     </row>
     <row r="34" spans="2:26">
       <c r="B34" s="148" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="150">
-        <v>7.1229626318905019</v>
-      </c>
-      <c r="D34" s="150">
-        <v>1.4164730550259441</v>
+        <v>9.0234560094051677</v>
+      </c>
+      <c r="D34" s="151">
+        <v>1.1645128073079107</v>
       </c>
       <c r="E34" s="150">
         <v>3.8086606726650665</v>
@@ -25348,11 +25366,11 @@
       <c r="F34" s="150">
         <v>2.230772036471746</v>
       </c>
-      <c r="G34" s="150">
-        <v>9.0234560094051677</v>
-      </c>
-      <c r="H34" s="151">
-        <v>1.1645128073079107</v>
+      <c r="G34" s="178">
+        <v>7.1229626318905019</v>
+      </c>
+      <c r="H34" s="179">
+        <v>1.4164730550259441</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -25376,10 +25394,10 @@
         <v>62</v>
       </c>
       <c r="C35" s="150">
-        <v>2.1769959330000002</v>
-      </c>
-      <c r="D35" s="150">
-        <v>0.70949314900000005</v>
+        <v>1.0717144789999999</v>
+      </c>
+      <c r="D35" s="151">
+        <v>0.29645480499999999</v>
       </c>
       <c r="E35" s="150">
         <v>1.2271566410000001</v>
@@ -25387,11 +25405,11 @@
       <c r="F35" s="150">
         <v>0.73470581099999999</v>
       </c>
-      <c r="G35" s="150">
-        <v>1.0717144789999999</v>
-      </c>
-      <c r="H35" s="151">
-        <v>0.29645480499999999</v>
+      <c r="G35" s="178">
+        <v>2.1769959330000002</v>
+      </c>
+      <c r="H35" s="179">
+        <v>0.70949314900000005</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -25415,10 +25433,10 @@
         <v>63</v>
       </c>
       <c r="C36" s="153">
-        <v>1.6062158332764913</v>
-      </c>
-      <c r="D36" s="153">
-        <v>0.64760122180520718</v>
+        <v>0.80274718170912296</v>
+      </c>
+      <c r="D36" s="154">
+        <v>0.24540123931091593</v>
       </c>
       <c r="E36" s="153">
         <v>0.99027102811118228</v>
@@ -25426,11 +25444,11 @@
       <c r="F36" s="153">
         <v>0.44407820631612566</v>
       </c>
-      <c r="G36" s="153">
-        <v>0.80274718170912296</v>
-      </c>
-      <c r="H36" s="154">
-        <v>0.24540123931091593</v>
+      <c r="G36" s="180">
+        <v>1.6062158332764913</v>
+      </c>
+      <c r="H36" s="181">
+        <v>0.64760122180520718</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -25451,22 +25469,22 @@
     </row>
     <row r="37" spans="2:26" ht="17.25" thickBot="1">
       <c r="B37" s="147"/>
-      <c r="C37" s="174" t="s">
+      <c r="C37" s="172" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="174"/>
-      <c r="E37" s="174" t="s">
+      <c r="D37" s="172"/>
+      <c r="E37" s="172" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="174"/>
-      <c r="G37" s="174" t="s">
+      <c r="F37" s="172"/>
+      <c r="G37" s="172" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="174"/>
-      <c r="I37" s="174" t="s">
+      <c r="H37" s="172"/>
+      <c r="I37" s="172" t="s">
         <v>73</v>
       </c>
-      <c r="J37" s="175"/>
+      <c r="J37" s="173"/>
       <c r="M37" s="153"/>
       <c r="N37" s="153"/>
       <c r="O37" s="153"/>
@@ -25597,34 +25615,34 @@
       </c>
     </row>
     <row r="43" spans="2:26">
-      <c r="C43" s="177"/>
-      <c r="D43" s="177"/>
-      <c r="E43" s="177"/>
-      <c r="F43" s="177"/>
-      <c r="G43" s="177"/>
-      <c r="H43" s="177"/>
-      <c r="I43" s="177"/>
-      <c r="J43" s="177"/>
-      <c r="K43" s="177"/>
-      <c r="L43" s="177"/>
+      <c r="C43" s="171"/>
+      <c r="D43" s="171"/>
+      <c r="E43" s="171"/>
+      <c r="F43" s="171"/>
+      <c r="G43" s="171"/>
+      <c r="H43" s="171"/>
+      <c r="I43" s="171"/>
+      <c r="J43" s="171"/>
+      <c r="K43" s="171"/>
+      <c r="L43" s="171"/>
     </row>
     <row r="44" spans="2:26">
-      <c r="C44" s="177" t="s">
+      <c r="C44" s="171" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="177"/>
-      <c r="E44" s="177"/>
-      <c r="F44" s="177" t="s">
+      <c r="D44" s="171"/>
+      <c r="E44" s="171"/>
+      <c r="F44" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="G44" s="177"/>
-      <c r="H44" s="177"/>
-      <c r="I44" s="177" t="s">
+      <c r="G44" s="171"/>
+      <c r="H44" s="171"/>
+      <c r="I44" s="171" t="s">
         <v>76</v>
       </c>
-      <c r="J44" s="177"/>
-      <c r="K44" s="177"/>
-      <c r="L44" s="177"/>
+      <c r="J44" s="171"/>
+      <c r="K44" s="171"/>
+      <c r="L44" s="171"/>
     </row>
     <row r="45" spans="2:26">
       <c r="C45">
@@ -25763,32 +25781,18 @@
         <v>1.0010490191895931</v>
       </c>
     </row>
+    <row r="57" spans="3:4">
+      <c r="C57">
+        <f>AVERAGE(C17:C20,F17:F20,I17:I20)</f>
+        <v>0.80274718170912296</v>
+      </c>
+      <c r="D57">
+        <f>AVERAGE(E17:E20,H17:H20,K17:K20)</f>
+        <v>1.6062158332764913</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="C43:L43"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="M33:N33"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="S2:U2"/>
@@ -25798,6 +25802,30 @@
     <mergeCell ref="P9:R9"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="C43:L43"/>
+    <mergeCell ref="O33:P33"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
